--- a/data/extracted_data/processed/fitted_model_results_round2.xlsx
+++ b/data/extracted_data/processed/fitted_model_results_round2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="463">
   <si>
     <t>file</t>
   </si>
@@ -608,15 +608,42 @@
     <t>186</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Blogoslawski_etal_1978_Table1.xlsx</t>
   </si>
   <si>
+    <t>Braga_etal_2018_Fig2.xlsx</t>
+  </si>
+  <si>
     <t>Braga_etal_2021_Fig2.xlsx</t>
   </si>
   <si>
     <t>Bricelj_etal_1991_Fig5.xlsx</t>
   </si>
   <si>
+    <t>Costa_etal_2011_Fig1.xlsx</t>
+  </si>
+  <si>
     <t>Diaz_etal_2024_Fig7.xlsx</t>
   </si>
   <si>
@@ -716,12 +743,18 @@
     <t>Blogoslawski et al. 1978_Table1</t>
   </si>
   <si>
+    <t>Braga et al. 2018_Fig2</t>
+  </si>
+  <si>
     <t>Braga et al. 2021_Fig2</t>
   </si>
   <si>
     <t>Bricelj et al. 1991_Fig5</t>
   </si>
   <si>
+    <t>Costa et al. 2011_Fig1</t>
+  </si>
+  <si>
     <t>Diaz et al. 2024_Fig7</t>
   </si>
   <si>
@@ -851,6 +884,18 @@
     <t>visceral mass-raw</t>
   </si>
   <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>TR2</t>
+  </si>
+  <si>
+    <t>TR3</t>
+  </si>
+  <si>
+    <t>TR4</t>
+  </si>
+  <si>
     <t>Grooved carpet shell-OA-free</t>
   </si>
   <si>
@@ -887,6 +932,15 @@
     <t>GtLI22-viscera</t>
   </si>
   <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>dcSTX</t>
+  </si>
+  <si>
     <t>Bay scallop</t>
   </si>
   <si>
@@ -1002,9 +1056,6 @@
   </si>
   <si>
     <t>Okadaic acid</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>edible part</t>
@@ -1444,13 +1495,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E2" t="n">
         <v>55.59999999999993</v>
@@ -1485,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E3" t="n">
         <v>213.99999999999974</v>
@@ -1526,13 +1577,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E4" t="n">
         <v>213.99999999999974</v>
@@ -1567,13 +1618,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E5" t="n">
         <v>1601.7999999999952</v>
@@ -1608,13 +1659,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E6" t="n">
         <v>1601.7999999999965</v>
@@ -1649,13 +1700,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E7" t="n">
         <v>1641.999999999998</v>
@@ -1690,13 +1741,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E8" t="n">
         <v>1641.9999999999936</v>
@@ -1731,13 +1782,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
         <v>544.999999999999</v>
@@ -1772,13 +1823,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E10" t="n">
         <v>544.999999999998</v>
@@ -1813,13 +1864,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E11" t="n">
         <v>1140.0000000000005</v>
@@ -1854,13 +1905,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E12" t="n">
         <v>1139.9999999999995</v>
@@ -1895,40 +1946,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E13" t="n">
-        <v>3.1452710445354417</v>
+        <v>1061.8139724634261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03671304930848028</v>
+        <v>-0.11576770152972864</v>
       </c>
       <c r="G13" t="n">
-        <v>0.10714285714284119</v>
+        <v>0.7118382356746672</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7857142857143176</v>
+        <v>0.5677573535120009</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7877043849903598</v>
+        <v>0.15629493561158045</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" t="n">
         <v>1.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.16599059506089586</v>
+        <v>-0.7240981370149857</v>
       </c>
       <c r="M13" t="n">
-        <v>5.668018809878208</v>
+        <v>7.448196274029971</v>
       </c>
     </row>
     <row r="14">
@@ -1936,40 +1987,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>61.64708740254427</v>
+        <v>579.258462678623</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3993428616155496</v>
+        <v>-0.08630887398395863</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9694759854596333</v>
+        <v>0.942655155274257</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9389519709192666</v>
+        <v>0.9139827329113855</v>
       </c>
       <c r="I14" t="n">
-        <v>0.11179837811384426</v>
+        <v>0.029095702309307414</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K14" t="n">
         <v>1.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3736845781707872</v>
+        <v>4.241092412729742</v>
       </c>
       <c r="M14" t="n">
-        <v>3.2526308436584257</v>
+        <v>-2.482184825459484</v>
       </c>
     </row>
     <row r="15">
@@ -1977,40 +2028,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E15" t="n">
-        <v>129.3463076847937</v>
+        <v>561.6158542341176</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.32785779155223105</v>
+        <v>-0.09345174720355465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9596321898034554</v>
+        <v>0.676526952784623</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9192643796069109</v>
+        <v>0.5147904291769345</v>
       </c>
       <c r="I15" t="n">
-        <v>0.12878458282928806</v>
+        <v>0.17748741481687766</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.530818897878273</v>
+        <v>-0.20048099823065524</v>
       </c>
       <c r="M15" t="n">
-        <v>2.938362204243454</v>
+        <v>6.4009619964613105</v>
       </c>
     </row>
     <row r="16">
@@ -2018,40 +2069,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E16" t="n">
-        <v>189.14085996604413</v>
+        <v>687.998741154384</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.35894487650940704</v>
+        <v>-0.10592500986553793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.963798322909697</v>
+        <v>0.8534410859092132</v>
       </c>
       <c r="H16" t="n">
-        <v>0.927596645819394</v>
+        <v>0.7801616288638198</v>
       </c>
       <c r="I16" t="n">
-        <v>0.12187098644902346</v>
+        <v>0.07618124834510251</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4289411146535071</v>
+        <v>1.3463594202615856</v>
       </c>
       <c r="M16" t="n">
-        <v>3.1421177706929857</v>
+        <v>3.3072811594768288</v>
       </c>
     </row>
     <row r="17">
@@ -2059,28 +2110,28 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E17" t="n">
-        <v>4.9491869405132665</v>
+        <v>3.1452710445354417</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6503557040227348</v>
+        <v>0.03671304930848028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9827092931676615</v>
+        <v>0.10714285714284119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9654185863353231</v>
+        <v>-0.7857142857143176</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08395490043080553</v>
+        <v>0.7877043849903598</v>
       </c>
       <c r="J17" t="n">
         <v>3.0</v>
@@ -2089,10 +2140,10 @@
         <v>1.0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7834405687710019</v>
+        <v>0.16599059506089586</v>
       </c>
       <c r="M17" t="n">
-        <v>4.433118862457996</v>
+        <v>5.668018809878208</v>
       </c>
     </row>
     <row r="18">
@@ -2100,28 +2151,28 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E18" t="n">
-        <v>33.99927067428185</v>
+        <v>61.64708740254427</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3487715658990248</v>
+        <v>-0.3993428616155496</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9937515087774469</v>
+        <v>0.9694759854596333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9875030175548938</v>
+        <v>0.9389519709192666</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05037569208158326</v>
+        <v>0.11179837811384426</v>
       </c>
       <c r="J18" t="n">
         <v>3.0</v>
@@ -2130,10 +2181,10 @@
         <v>1.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.196251900160538</v>
+        <v>1.3736845781707872</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.3925038003210766</v>
+        <v>3.2526308436584257</v>
       </c>
     </row>
     <row r="19">
@@ -2141,28 +2192,28 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E19" t="n">
-        <v>61.31787428206829</v>
+        <v>129.3463076847937</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.271372352544061</v>
+        <v>-0.32785779155223105</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9838588400485054</v>
+        <v>0.9596321898034554</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9677176800970109</v>
+        <v>0.9192643796069109</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08110036458418626</v>
+        <v>0.12878458282928806</v>
       </c>
       <c r="J19" t="n">
         <v>3.0</v>
@@ -2171,10 +2222,10 @@
         <v>1.0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5104719133074167</v>
+        <v>1.530818897878273</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.0209438266148334</v>
+        <v>2.938362204243454</v>
       </c>
     </row>
     <row r="20">
@@ -2182,28 +2233,28 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E20" t="n">
-        <v>98.09944894205545</v>
+        <v>189.14085996604413</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.28445510280047986</v>
+        <v>-0.35894487650940704</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9838572948707097</v>
+        <v>0.963798322909697</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9677145897414194</v>
+        <v>0.927596645819394</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08110426745877711</v>
+        <v>0.12187098644902346</v>
       </c>
       <c r="J20" t="n">
         <v>3.0</v>
@@ -2212,10 +2263,10 @@
         <v>1.0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.369075297487851</v>
+        <v>1.4289411146535071</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.7381505949757017</v>
+        <v>3.1421177706929857</v>
       </c>
     </row>
     <row r="21">
@@ -2223,40 +2274,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E21" t="n">
-        <v>18.78039717842096</v>
+        <v>4.9491869405132665</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09296463506681663</v>
+        <v>-0.6503557040227348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9471736276173713</v>
+        <v>0.9827092931676615</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9383692322202666</v>
+        <v>0.9654185863353231</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7010960541880964E-5</v>
+        <v>0.08395490043080553</v>
       </c>
       <c r="J21" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.702971539699574</v>
+        <v>0.7834405687710019</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.4059430793991474</v>
+        <v>4.433118862457996</v>
       </c>
     </row>
     <row r="22">
@@ -2264,40 +2315,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E22" t="n">
-        <v>115.0467678727236</v>
+        <v>33.99927067428185</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.14553671299143564</v>
+        <v>-0.3487715658990248</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7482169863817558</v>
+        <v>0.9937515087774469</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7062531507787151</v>
+        <v>0.9875030175548938</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005545520788056726</v>
+        <v>0.05037569208158326</v>
       </c>
       <c r="J22" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
       </c>
       <c r="L22" t="n">
-        <v>-6.072088313153018</v>
+        <v>4.196251900160538</v>
       </c>
       <c r="M22" t="n">
-        <v>18.144176626306034</v>
+        <v>-2.3925038003210766</v>
       </c>
     </row>
     <row r="23">
@@ -2305,40 +2356,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5868535051669974</v>
+        <v>61.31787428206829</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.10438259120347165</v>
+        <v>-0.271372352544061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7721618527142624</v>
+        <v>0.9838588400485054</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7436820843035452</v>
+        <v>0.9677176800970109</v>
       </c>
       <c r="I23" t="n">
-        <v>8.154255795920233E-4</v>
+        <v>0.08110036458418626</v>
       </c>
       <c r="J23" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
       </c>
       <c r="L23" t="n">
-        <v>-5.8646273905460315</v>
+        <v>3.5104719133074167</v>
       </c>
       <c r="M23" t="n">
-        <v>17.729254781092063</v>
+        <v>-1.0209438266148334</v>
       </c>
     </row>
     <row r="24">
@@ -2346,40 +2397,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E24" t="n">
-        <v>24.33355547764065</v>
+        <v>98.09944894205545</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.10409918898223168</v>
+        <v>-0.28445510280047986</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7861722195499853</v>
+        <v>0.9838572948707097</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7594437469937334</v>
+        <v>0.9677145897414194</v>
       </c>
       <c r="I24" t="n">
-        <v>6.282509190976179E-4</v>
+        <v>0.08110426745877711</v>
       </c>
       <c r="J24" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
       </c>
       <c r="L24" t="n">
-        <v>-5.430208806607952</v>
+        <v>3.369075297487851</v>
       </c>
       <c r="M24" t="n">
-        <v>16.860417613215905</v>
+        <v>-0.7381505949757017</v>
       </c>
     </row>
     <row r="25">
@@ -2387,40 +2438,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="E25" t="n">
-        <v>5.757770962240197</v>
+        <v>18.78039717842096</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02049623703920807</v>
+        <v>-0.09296463506681663</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8248090781568249</v>
+        <v>0.9471736276173713</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8029102129264281</v>
+        <v>0.9383692322202666</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7788769509834086E-4</v>
+        <v>4.7010960541880964E-5</v>
       </c>
       <c r="J25" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
       </c>
       <c r="L25" t="n">
-        <v>-5.945713775469241</v>
+        <v>4.702971539699574</v>
       </c>
       <c r="M25" t="n">
-        <v>17.89142755093848</v>
+        <v>-3.4059430793991474</v>
       </c>
     </row>
     <row r="26">
@@ -2428,28 +2479,28 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E26" t="n">
-        <v>1148.4436321039188</v>
+        <v>115.0467678727236</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.05647330730800524</v>
+        <v>-0.14553671299143564</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8282775676699073</v>
+        <v>0.7482169863817558</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7996571622815586</v>
+        <v>0.7062531507787151</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0016962958385185619</v>
+        <v>0.005545520788056726</v>
       </c>
       <c r="J26" t="n">
         <v>8.0</v>
@@ -2458,10 +2509,10 @@
         <v>1.0</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.4330598123576537</v>
+        <v>-6.072088313153018</v>
       </c>
       <c r="M26" t="n">
-        <v>10.866119624715306</v>
+        <v>18.144176626306034</v>
       </c>
     </row>
     <row r="27">
@@ -2469,40 +2520,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E27" t="n">
-        <v>4143.444338816536</v>
+        <v>1.5868535051669974</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.10326220990083483</v>
+        <v>-0.10438259120347165</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9857663430812941</v>
+        <v>0.7721618527142624</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9833940669281764</v>
+        <v>0.7436820843035452</v>
       </c>
       <c r="I27" t="n">
-        <v>9.060065251179635E-7</v>
+        <v>8.154255795920233E-4</v>
       </c>
       <c r="J27" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
       </c>
       <c r="L27" t="n">
-        <v>3.396277336074535</v>
+        <v>-5.8646273905460315</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.7925546721490697</v>
+        <v>17.729254781092063</v>
       </c>
     </row>
     <row r="28">
@@ -2510,40 +2561,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E28" t="n">
-        <v>85.6148849753819</v>
+        <v>24.33355547764065</v>
       </c>
       <c r="F28" t="n">
-        <v>0.009079703853326569</v>
+        <v>-0.10409918898223168</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06554258310213172</v>
+        <v>0.7861722195499853</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8689148337957366</v>
+        <v>0.7594437469937334</v>
       </c>
       <c r="I28" t="n">
-        <v>0.835182111272284</v>
+        <v>6.282509190976179E-4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
       </c>
       <c r="L28" t="n">
-        <v>2.702165728654857</v>
+        <v>-5.430208806607952</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5956685426902864</v>
+        <v>16.860417613215905</v>
       </c>
     </row>
     <row r="29">
@@ -2551,40 +2602,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E29" t="n">
-        <v>36.48524856199473</v>
+        <v>76.57853179877112</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.10067012353575328</v>
+        <v>-0.6660932508083481</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7129801775276298</v>
+        <v>0.9482690132156433</v>
       </c>
       <c r="H29" t="n">
-        <v>0.42596035505525953</v>
+        <v>0.9224035198234649</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3599363005195624</v>
+        <v>0.02620894786630779</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8354957658534748</v>
+        <v>1.3204237160352936</v>
       </c>
       <c r="M29" t="n">
-        <v>4.3290084682930505</v>
+        <v>3.3591525679294127</v>
       </c>
     </row>
     <row r="30">
@@ -2592,40 +2643,40 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E30" t="n">
-        <v>1712.2732767961875</v>
+        <v>121.52057298165644</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.09343142558405705</v>
+        <v>-0.5885389171076344</v>
       </c>
       <c r="G30" t="n">
-        <v>0.99035078498578</v>
+        <v>0.9961630764828281</v>
       </c>
       <c r="H30" t="n">
-        <v>0.98070156997156</v>
+        <v>0.9948841019771041</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06263643516846494</v>
+        <v>1.009867103515559E-4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
       </c>
       <c r="L30" t="n">
-        <v>6.641280173938441</v>
+        <v>6.740995532604453</v>
       </c>
       <c r="M30" t="n">
-        <v>-7.282560347876881</v>
+        <v>-7.481991065208906</v>
       </c>
     </row>
     <row r="31">
@@ -2633,40 +2684,40 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E31" t="n">
-        <v>21.334333432280467</v>
+        <v>38.836005774938194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.26114981541529153</v>
+        <v>-0.3808898784490929</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6544548844787385</v>
+        <v>0.9730493055120193</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3089097689574769</v>
+        <v>0.9640657406826924</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4000358867057737</v>
+        <v>0.001893181406250652</v>
       </c>
       <c r="J31" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.4310741257206274</v>
+        <v>3.9846232762212623</v>
       </c>
       <c r="M31" t="n">
-        <v>10.862148251441255</v>
+        <v>-1.9692465524425247</v>
       </c>
     </row>
     <row r="32">
@@ -2674,40 +2725,40 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E32" t="n">
-        <v>329.23727742240413</v>
+        <v>5.757770962240197</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.09309948666833366</v>
+        <v>-0.02049623703920807</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9712447125428704</v>
+        <v>0.8248090781568249</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9568670688143055</v>
+        <v>0.8029102129264281</v>
       </c>
       <c r="I32" t="n">
-        <v>0.014482515354055061</v>
+        <v>2.7788769509834086E-4</v>
       </c>
       <c r="J32" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.1717411418706085</v>
+        <v>-5.945713775469241</v>
       </c>
       <c r="M32" t="n">
-        <v>-4.343482283741217</v>
+        <v>17.89142755093848</v>
       </c>
     </row>
     <row r="33">
@@ -2715,40 +2766,40 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E33" t="n">
-        <v>1.1766391733537873</v>
+        <v>1148.4436321039188</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.06396698498578111</v>
+        <v>-0.05647330730800524</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9604647682652997</v>
+        <v>0.8282775676699073</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9406971523979495</v>
+        <v>0.7996571622815586</v>
       </c>
       <c r="I33" t="n">
-        <v>0.019966955523794745</v>
+        <v>0.0016962958385185619</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.8954063686939109</v>
+        <v>-2.4330598123576537</v>
       </c>
       <c r="M33" t="n">
-        <v>2.2091872626121782</v>
+        <v>10.866119624715306</v>
       </c>
     </row>
     <row r="34">
@@ -2756,40 +2807,40 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E34" t="n">
-        <v>2.012060235783308</v>
+        <v>4143.444338816536</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.055663843328197744</v>
+        <v>-0.10326220990083483</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7796662651926101</v>
+        <v>0.9857663430812941</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6694993977889151</v>
+        <v>0.9833940669281764</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1170128737107148</v>
+        <v>9.060065251179635E-7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.9011942417501222</v>
+        <v>3.396277336074535</v>
       </c>
       <c r="M34" t="n">
-        <v>9.802388483500245</v>
+        <v>-0.7925546721490697</v>
       </c>
     </row>
     <row r="35">
@@ -2797,40 +2848,40 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="E35" t="n">
-        <v>3.462052646779233</v>
+        <v>85.6148849753819</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0033967068101462892</v>
+        <v>0.009079703853326569</v>
       </c>
       <c r="G35" t="n">
-        <v>0.12534252202676097</v>
+        <v>0.06554258310213172</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11188625313486511</v>
+        <v>-0.8689148337957366</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0032903565757646876</v>
+        <v>0.835182111272284</v>
       </c>
       <c r="J35" t="n">
-        <v>67.0</v>
+        <v>3.0</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
       </c>
       <c r="L35" t="n">
-        <v>-152.68489220510403</v>
+        <v>2.702165728654857</v>
       </c>
       <c r="M35" t="n">
-        <v>311.36978441020807</v>
+        <v>0.5956685426902864</v>
       </c>
     </row>
     <row r="36">
@@ -2838,28 +2889,28 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="E36" t="n">
-        <v>12.83767638898125</v>
+        <v>36.48524856199473</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.04676868602455034</v>
+        <v>-0.10067012353575328</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7725980994911783</v>
+        <v>0.7129801775276298</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5451961989823566</v>
+        <v>0.42596035505525953</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3164551544323202</v>
+        <v>0.3599363005195624</v>
       </c>
       <c r="J36" t="n">
         <v>3.0</v>
@@ -2868,10 +2919,10 @@
         <v>1.0</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.360100748292709</v>
+        <v>0.8354957658534748</v>
       </c>
       <c r="M36" t="n">
-        <v>14.720201496585418</v>
+        <v>4.3290084682930505</v>
       </c>
     </row>
     <row r="37">
@@ -2879,28 +2930,28 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E37" t="n">
-        <v>28.578461405608156</v>
+        <v>1712.2732767961875</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.032800014203759185</v>
+        <v>-0.09343142558405705</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943242584798147</v>
+        <v>0.99035078498578</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7886485169596293</v>
+        <v>0.98070156997156</v>
       </c>
       <c r="I37" t="n">
-        <v>0.21078115514388907</v>
+        <v>0.06263643516846494</v>
       </c>
       <c r="J37" t="n">
         <v>3.0</v>
@@ -2909,10 +2960,10 @@
         <v>1.0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.9267664631878638</v>
+        <v>6.641280173938441</v>
       </c>
       <c r="M37" t="n">
-        <v>9.853532926375728</v>
+        <v>-7.282560347876881</v>
       </c>
     </row>
     <row r="38">
@@ -2920,28 +2971,28 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E38" t="n">
-        <v>0.29779745783312406</v>
+        <v>21.334333432280467</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03280724809472861</v>
+        <v>0.26114981541529153</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4807692307692306</v>
+        <v>0.6544548844787385</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.03846153846153877</v>
+        <v>0.3089097689574769</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5122457083554007</v>
+        <v>0.4000358867057737</v>
       </c>
       <c r="J38" t="n">
         <v>3.0</v>
@@ -2950,10 +3001,10 @@
         <v>1.0</v>
       </c>
       <c r="L38" t="n">
-        <v>-5.2464091648708395</v>
+        <v>-2.4310741257206274</v>
       </c>
       <c r="M38" t="n">
-        <v>16.49281832974168</v>
+        <v>10.862148251441255</v>
       </c>
     </row>
     <row r="39">
@@ -2961,40 +3012,40 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="E39" t="n">
-        <v>0.35942782797327233</v>
+        <v>329.23727742240413</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03511239290604088</v>
+        <v>-0.09309948666833366</v>
       </c>
       <c r="G39" t="n">
-        <v>0.48076923076923045</v>
+        <v>0.9712447125428704</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.03846153846153921</v>
+        <v>0.9568670688143055</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5122457083554008</v>
+        <v>0.014482515354055061</v>
       </c>
       <c r="J39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K39" t="n">
         <v>1.0</v>
       </c>
       <c r="L39" t="n">
-        <v>-5.450123183649396</v>
+        <v>5.1717411418706085</v>
       </c>
       <c r="M39" t="n">
-        <v>16.90024636729879</v>
+        <v>-4.343482283741217</v>
       </c>
     </row>
     <row r="40">
@@ -3002,40 +3053,40 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E40" t="n">
-        <v>45.14236752713455</v>
+        <v>1.1766391733537873</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0367571532203437</v>
+        <v>-0.06396698498578111</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8517603381469617</v>
+        <v>0.9604647682652997</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7035206762939235</v>
+        <v>0.9406971523979495</v>
       </c>
       <c r="I40" t="n">
-        <v>0.25161024833245405</v>
+        <v>0.019966955523794745</v>
       </c>
       <c r="J40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K40" t="n">
         <v>1.0</v>
       </c>
       <c r="L40" t="n">
-        <v>-2.8493054115864145</v>
+        <v>1.8954063686939109</v>
       </c>
       <c r="M40" t="n">
-        <v>11.698610823172828</v>
+        <v>2.2091872626121782</v>
       </c>
     </row>
     <row r="41">
@@ -3043,40 +3094,40 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E41" t="n">
-        <v>19.171273028818003</v>
+        <v>2.012060235783308</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.029783180337380036</v>
+        <v>-0.055663843328197744</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5525896224291309</v>
+        <v>0.7796662651926101</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1051792448582618</v>
+        <v>0.6694993977889151</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4664583682331897</v>
+        <v>0.1170128737107148</v>
       </c>
       <c r="J41" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
       </c>
       <c r="L41" t="n">
-        <v>-4.524141559557295</v>
+        <v>-1.9011942417501222</v>
       </c>
       <c r="M41" t="n">
-        <v>15.04828311911459</v>
+        <v>9.802388483500245</v>
       </c>
     </row>
     <row r="42">
@@ -3084,40 +3135,40 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="E42" t="n">
-        <v>0.270714520242788</v>
+        <v>3.462052646779233</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.031638758524509016</v>
+        <v>-0.0033967068101462892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.48076923076923056</v>
+        <v>0.12534252202676097</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.03846153846153877</v>
+        <v>0.11188625313486511</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5122457083554007</v>
+        <v>0.0032903565757646876</v>
       </c>
       <c r="J42" t="n">
-        <v>3.0</v>
+        <v>67.0</v>
       </c>
       <c r="K42" t="n">
         <v>1.0</v>
       </c>
       <c r="L42" t="n">
-        <v>-5.137609470238493</v>
+        <v>-152.68489220510403</v>
       </c>
       <c r="M42" t="n">
-        <v>16.275218940476986</v>
+        <v>311.36978441020807</v>
       </c>
     </row>
     <row r="43">
@@ -3125,28 +3176,28 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5552332270016407</v>
+        <v>12.83767638898125</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04044174160678568</v>
+        <v>-0.04676868602455034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4807692307692305</v>
+        <v>0.7725980994911783</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.03846153846153899</v>
+        <v>0.5451961989823566</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5122457083554008</v>
+        <v>0.3164551544323202</v>
       </c>
       <c r="J43" t="n">
         <v>3.0</v>
@@ -3155,10 +3206,10 @@
         <v>1.0</v>
       </c>
       <c r="L43" t="n">
-        <v>-5.874048135434792</v>
+        <v>-4.360100748292709</v>
       </c>
       <c r="M43" t="n">
-        <v>17.748096270869585</v>
+        <v>14.720201496585418</v>
       </c>
     </row>
     <row r="44">
@@ -3166,28 +3217,28 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4259306130554668</v>
+        <v>28.578461405608156</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.037192822471303566</v>
+        <v>-0.032800014203759185</v>
       </c>
       <c r="G44" t="n">
-        <v>0.48076923076923045</v>
+        <v>0.8943242584798147</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03846153846153921</v>
+        <v>0.7886485169596293</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5122457083554008</v>
+        <v>0.21078115514388907</v>
       </c>
       <c r="J44" t="n">
         <v>3.0</v>
@@ -3196,10 +3247,10 @@
         <v>1.0</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.622808151472994</v>
+        <v>-1.9267664631878638</v>
       </c>
       <c r="M44" t="n">
-        <v>17.24561630294599</v>
+        <v>9.853532926375728</v>
       </c>
     </row>
     <row r="45">
@@ -3207,28 +3258,28 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E45" t="n">
-        <v>20.514103739669018</v>
+        <v>0.29779745783312406</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.03061283321350856</v>
+        <v>-0.03280724809472861</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5505167156046707</v>
+        <v>0.4807692307692306</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1010334312093415</v>
+        <v>-0.03846153846153877</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4677850936870071</v>
+        <v>0.5122457083554007</v>
       </c>
       <c r="J45" t="n">
         <v>3.0</v>
@@ -3237,10 +3288,10 @@
         <v>1.0</v>
       </c>
       <c r="L45" t="n">
-        <v>-4.619139135058419</v>
+        <v>-5.2464091648708395</v>
       </c>
       <c r="M45" t="n">
-        <v>15.238278270116838</v>
+        <v>16.49281832974168</v>
       </c>
     </row>
     <row r="46">
@@ -3248,28 +3299,28 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E46" t="n">
-        <v>4.2643126090225145</v>
+        <v>0.35942782797327233</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.013269160457880055</v>
+        <v>-0.03511239290604088</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4070612053378183</v>
+        <v>0.48076923076923045</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.18587758932436338</v>
+        <v>-0.03846153846153921</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5595127892222338</v>
+        <v>0.5122457083554008</v>
       </c>
       <c r="J46" t="n">
         <v>3.0</v>
@@ -3278,10 +3329,10 @@
         <v>1.0</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.979538372478293</v>
+        <v>-5.450123183649396</v>
       </c>
       <c r="M46" t="n">
-        <v>11.959076744956587</v>
+        <v>16.90024636729879</v>
       </c>
     </row>
     <row r="47">
@@ -3289,28 +3340,28 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09462278668003853</v>
+        <v>45.14236752713455</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.018756815954110627</v>
+        <v>-0.0367571532203437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4807692307692307</v>
+        <v>0.8517603381469617</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.03846153846153855</v>
+        <v>0.7035206762939235</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5122457083554006</v>
+        <v>0.25161024833245405</v>
       </c>
       <c r="J47" t="n">
         <v>3.0</v>
@@ -3319,10 +3370,10 @@
         <v>1.0</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.5691323681809988</v>
+        <v>-2.8493054115864145</v>
       </c>
       <c r="M47" t="n">
-        <v>13.138264736361997</v>
+        <v>11.698610823172828</v>
       </c>
     </row>
     <row r="48">
@@ -3330,28 +3381,28 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09462278668003853</v>
+        <v>19.171273028818003</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.018756815954110627</v>
+        <v>-0.029783180337380036</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4807692307692307</v>
+        <v>0.5525896224291309</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.03846153846153855</v>
+        <v>0.1051792448582618</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5122457083554006</v>
+        <v>0.4664583682331897</v>
       </c>
       <c r="J48" t="n">
         <v>3.0</v>
@@ -3360,10 +3411,10 @@
         <v>1.0</v>
       </c>
       <c r="L48" t="n">
-        <v>-3.5691323681809988</v>
+        <v>-4.524141559557295</v>
       </c>
       <c r="M48" t="n">
-        <v>13.138264736361997</v>
+        <v>15.04828311911459</v>
       </c>
     </row>
     <row r="49">
@@ -3371,28 +3422,28 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09462278668003853</v>
+        <v>0.270714520242788</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.018756815954110627</v>
+        <v>-0.031638758524509016</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4807692307692307</v>
+        <v>0.48076923076923056</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.03846153846153855</v>
+        <v>-0.03846153846153877</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5122457083554006</v>
+        <v>0.5122457083554007</v>
       </c>
       <c r="J49" t="n">
         <v>3.0</v>
@@ -3401,10 +3452,10 @@
         <v>1.0</v>
       </c>
       <c r="L49" t="n">
-        <v>-3.5691323681809988</v>
+        <v>-5.137609470238493</v>
       </c>
       <c r="M49" t="n">
-        <v>13.138264736361997</v>
+        <v>16.275218940476986</v>
       </c>
     </row>
     <row r="50">
@@ -3412,28 +3463,28 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E50" t="n">
-        <v>4.476028735337404</v>
+        <v>0.5552332270016407</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.013862974337316925</v>
+        <v>-0.04044174160678568</v>
       </c>
       <c r="G50" t="n">
-        <v>0.40994571663005586</v>
+        <v>0.4807692307692305</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1801085667398883</v>
+        <v>-0.03846153846153899</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5576449087380835</v>
+        <v>0.5122457083554008</v>
       </c>
       <c r="J50" t="n">
         <v>3.0</v>
@@ -3442,10 +3493,10 @@
         <v>1.0</v>
       </c>
       <c r="L50" t="n">
-        <v>-3.0929685817761277</v>
+        <v>-5.874048135434792</v>
       </c>
       <c r="M50" t="n">
-        <v>12.185937163552255</v>
+        <v>17.748096270869585</v>
       </c>
     </row>
     <row r="51">
@@ -3453,40 +3504,40 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E51" t="n">
-        <v>500.1547496158158</v>
+        <v>0.4259306130554668</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.2819898815560929</v>
+        <v>-0.037192822471303566</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9863683093536343</v>
+        <v>0.48076923076923045</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9818244124715124</v>
+        <v>-0.03846153846153921</v>
       </c>
       <c r="I51" t="n">
-        <v>6.782642197271265E-4</v>
+        <v>0.5122457083554008</v>
       </c>
       <c r="J51" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K51" t="n">
         <v>1.0</v>
       </c>
       <c r="L51" t="n">
-        <v>5.146502619789359</v>
+        <v>-5.622808151472994</v>
       </c>
       <c r="M51" t="n">
-        <v>-4.293005239578719</v>
+        <v>17.24561630294599</v>
       </c>
     </row>
     <row r="52">
@@ -3494,40 +3545,40 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="E52" t="n">
-        <v>297.00307361750544</v>
+        <v>20.514103739669018</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.31855881161351846</v>
+        <v>-0.03061283321350856</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9974083672495861</v>
+        <v>0.5505167156046707</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9965444896661149</v>
+        <v>0.1010334312093415</v>
       </c>
       <c r="I52" t="n">
-        <v>5.6038570816996705E-5</v>
+        <v>0.4677850936870071</v>
       </c>
       <c r="J52" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K52" t="n">
         <v>1.0</v>
       </c>
       <c r="L52" t="n">
-        <v>8.714922148071055</v>
+        <v>-4.619139135058419</v>
       </c>
       <c r="M52" t="n">
-        <v>-11.429844296142111</v>
+        <v>15.238278270116838</v>
       </c>
     </row>
     <row r="53">
@@ -3535,40 +3586,40 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E53" t="n">
-        <v>430.3681810323798</v>
+        <v>4.2643126090225145</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.28177354059924564</v>
+        <v>-0.013269160457880055</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9908773442921388</v>
+        <v>0.4070612053378183</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9885966803651736</v>
+        <v>-0.18587758932436338</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1303959328212695E-5</v>
+        <v>0.5595127892222338</v>
       </c>
       <c r="J53" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="K53" t="n">
         <v>1.0</v>
       </c>
       <c r="L53" t="n">
-        <v>7.253096228436573</v>
+        <v>-2.979538372478293</v>
       </c>
       <c r="M53" t="n">
-        <v>-8.506192456873146</v>
+        <v>11.959076744956587</v>
       </c>
     </row>
     <row r="54">
@@ -3576,40 +3627,40 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D54" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E54" t="n">
-        <v>1096.7345074607983</v>
+        <v>0.09462278668003853</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.16149130639458278</v>
+        <v>-0.018756815954110627</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9038373100462723</v>
+        <v>0.4807692307692307</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8717830800616965</v>
+        <v>-0.03846153846153855</v>
       </c>
       <c r="I54" t="n">
-        <v>0.013041248006233321</v>
+        <v>0.5122457083554006</v>
       </c>
       <c r="J54" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K54" t="n">
         <v>1.0</v>
       </c>
       <c r="L54" t="n">
-        <v>2.831040477506534</v>
+        <v>-3.5691323681809988</v>
       </c>
       <c r="M54" t="n">
-        <v>0.3379190449869318</v>
+        <v>13.138264736361997</v>
       </c>
     </row>
     <row r="55">
@@ -3617,40 +3668,40 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D55" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E55" t="n">
-        <v>397.1248739893527</v>
+        <v>0.09462278668003853</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.12672456958073977</v>
+        <v>-0.018756815954110627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9881518408111432</v>
+        <v>0.4807692307692307</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9842024544148575</v>
+        <v>-0.03846153846153855</v>
       </c>
       <c r="I55" t="n">
-        <v>5.493080502855768E-4</v>
+        <v>0.5122457083554006</v>
       </c>
       <c r="J55" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K55" t="n">
         <v>1.0</v>
       </c>
       <c r="L55" t="n">
-        <v>9.500856904505428</v>
+        <v>-3.5691323681809988</v>
       </c>
       <c r="M55" t="n">
-        <v>-13.001713809010855</v>
+        <v>13.138264736361997</v>
       </c>
     </row>
     <row r="56">
@@ -3658,40 +3709,40 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E56" t="n">
-        <v>934.9096153938076</v>
+        <v>0.09462278668003853</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.19836547807479435</v>
+        <v>-0.018756815954110627</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8969281403241172</v>
+        <v>0.4807692307692307</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8763137683889406</v>
+        <v>-0.03846153846153855</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0012034426408550035</v>
+        <v>0.5122457083554006</v>
       </c>
       <c r="J56" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K56" t="n">
         <v>1.0</v>
       </c>
       <c r="L56" t="n">
-        <v>2.575135738402614</v>
+        <v>-3.5691323681809988</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8497285231947718</v>
+        <v>13.138264736361997</v>
       </c>
     </row>
     <row r="57">
@@ -3699,40 +3750,40 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E57" t="n">
-        <v>2220.6212581037016</v>
+        <v>4.476028735337404</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.3473299345868046</v>
+        <v>-0.013862974337316925</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9959345803186055</v>
+        <v>0.40994571663005586</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9945794404248073</v>
+        <v>-0.1801085667398883</v>
       </c>
       <c r="I57" t="n">
-        <v>1.1014821185024716E-4</v>
+        <v>0.5576449087380835</v>
       </c>
       <c r="J57" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K57" t="n">
         <v>1.0</v>
       </c>
       <c r="L57" t="n">
-        <v>7.153312938464918</v>
+        <v>-3.0929685817761277</v>
       </c>
       <c r="M57" t="n">
-        <v>-8.306625876929836</v>
+        <v>12.185937163552255</v>
       </c>
     </row>
     <row r="58">
@@ -3740,28 +3791,28 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E58" t="n">
-        <v>1468.1944333533597</v>
+        <v>500.1547496158158</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.384116490457279</v>
+        <v>-0.2819898815560929</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9962860227824345</v>
+        <v>0.9863683093536343</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9950480303765793</v>
+        <v>0.9818244124715124</v>
       </c>
       <c r="I58" t="n">
-        <v>9.616837984254398E-5</v>
+        <v>6.782642197271265E-4</v>
       </c>
       <c r="J58" t="n">
         <v>5.0</v>
@@ -3770,10 +3821,10 @@
         <v>1.0</v>
       </c>
       <c r="L58" t="n">
-        <v>6.876875510485993</v>
+        <v>5.146502619789359</v>
       </c>
       <c r="M58" t="n">
-        <v>-7.753751020971986</v>
+        <v>-4.293005239578719</v>
       </c>
     </row>
     <row r="59">
@@ -3781,40 +3832,40 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E59" t="n">
-        <v>1844.8214529699426</v>
+        <v>297.00307361750544</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.37345787775892225</v>
+        <v>-0.31855881161351846</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9603315423055049</v>
+        <v>0.9974083672495861</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9523978507666059</v>
+        <v>0.9965444896661149</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0795580989872619E-4</v>
+        <v>5.6038570816996705E-5</v>
       </c>
       <c r="J59" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K59" t="n">
         <v>1.0</v>
       </c>
       <c r="L59" t="n">
-        <v>1.727382552085437</v>
+        <v>8.714922148071055</v>
       </c>
       <c r="M59" t="n">
-        <v>2.545234895829126</v>
+        <v>-11.429844296142111</v>
       </c>
     </row>
     <row r="60">
@@ -3822,40 +3873,40 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E60" t="n">
-        <v>3264.525257226817</v>
+        <v>430.3681810323798</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2585834336816405</v>
+        <v>-0.28177354059924564</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9834707949344592</v>
+        <v>0.9908773442921388</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9779610599126123</v>
+        <v>0.9885966803651736</v>
       </c>
       <c r="I60" t="n">
-        <v>9.064299295491616E-4</v>
+        <v>3.1303959328212695E-5</v>
       </c>
       <c r="J60" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K60" t="n">
         <v>1.0</v>
       </c>
       <c r="L60" t="n">
-        <v>5.090582990000511</v>
+        <v>7.253096228436573</v>
       </c>
       <c r="M60" t="n">
-        <v>-4.181165980001023</v>
+        <v>-8.506192456873146</v>
       </c>
     </row>
     <row r="61">
@@ -3863,28 +3914,28 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E61" t="n">
-        <v>1788.1644370060737</v>
+        <v>1096.7345074607983</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2786763561348064</v>
+        <v>-0.16149130639458278</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9965664324105866</v>
+        <v>0.9038373100462723</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9954219098807822</v>
+        <v>0.8717830800616965</v>
       </c>
       <c r="I61" t="n">
-        <v>8.54781693802824E-5</v>
+        <v>0.013041248006233321</v>
       </c>
       <c r="J61" t="n">
         <v>5.0</v>
@@ -3893,10 +3944,10 @@
         <v>1.0</v>
       </c>
       <c r="L61" t="n">
-        <v>8.678311647791517</v>
+        <v>2.831040477506534</v>
       </c>
       <c r="M61" t="n">
-        <v>-11.356623295583034</v>
+        <v>0.3379190449869318</v>
       </c>
     </row>
     <row r="62">
@@ -3904,40 +3955,40 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E62" t="n">
-        <v>2760.8558831956193</v>
+        <v>397.1248739893527</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2911699995808557</v>
+        <v>-0.12672456958073977</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9793605931839509</v>
+        <v>0.9881518408111432</v>
       </c>
       <c r="H62" t="n">
-        <v>0.975232711820741</v>
+        <v>0.9842024544148575</v>
       </c>
       <c r="I62" t="n">
-        <v>2.093390371678231E-5</v>
+        <v>5.493080502855768E-4</v>
       </c>
       <c r="J62" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K62" t="n">
         <v>1.0</v>
       </c>
       <c r="L62" t="n">
-        <v>5.825082253142624</v>
+        <v>9.500856904505428</v>
       </c>
       <c r="M62" t="n">
-        <v>-5.650164506285249</v>
+        <v>-13.001713809010855</v>
       </c>
     </row>
     <row r="63">
@@ -3945,40 +3996,40 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E63" t="n">
-        <v>4.301970936237539</v>
+        <v>934.9096153938076</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.09191521297160032</v>
+        <v>-0.19836547807479435</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6239717102111342</v>
+        <v>0.8969281403241172</v>
       </c>
       <c r="H63" t="n">
-        <v>0.576968173987526</v>
+        <v>0.8763137683889406</v>
       </c>
       <c r="I63" t="n">
-        <v>0.00655581511948427</v>
+        <v>0.0012034426408550035</v>
       </c>
       <c r="J63" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="K63" t="n">
         <v>1.0</v>
       </c>
       <c r="L63" t="n">
-        <v>-10.972123561021423</v>
+        <v>2.575135738402614</v>
       </c>
       <c r="M63" t="n">
-        <v>27.944247122042846</v>
+        <v>0.8497285231947718</v>
       </c>
     </row>
     <row r="64">
@@ -3986,40 +4037,40 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="E64" t="n">
-        <v>1.913668594567927</v>
+        <v>2220.6212581037016</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.06767064406575521</v>
+        <v>-0.3473299345868046</v>
       </c>
       <c r="G64" t="n">
-        <v>0.38206715502898014</v>
+        <v>0.9959345803186055</v>
       </c>
       <c r="H64" t="n">
-        <v>0.30482554940760265</v>
+        <v>0.9945794404248073</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0568221363083485</v>
+        <v>1.1014821185024716E-4</v>
       </c>
       <c r="J64" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K64" t="n">
         <v>1.0</v>
       </c>
       <c r="L64" t="n">
-        <v>-12.84610293352955</v>
+        <v>7.153312938464918</v>
       </c>
       <c r="M64" t="n">
-        <v>31.6922058670591</v>
+        <v>-8.306625876929836</v>
       </c>
     </row>
     <row r="65">
@@ -4027,40 +4078,40 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E65" t="n">
-        <v>1.6581659644371014</v>
+        <v>1468.1944333533597</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.057345585834322164</v>
+        <v>-0.384116490457279</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7460016195382001</v>
+        <v>0.9962860227824345</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7036685561279001</v>
+        <v>0.9950480303765793</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005699192666323132</v>
+        <v>9.616837984254398E-5</v>
       </c>
       <c r="J65" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="K65" t="n">
         <v>1.0</v>
       </c>
       <c r="L65" t="n">
-        <v>-2.715794758480793</v>
+        <v>6.876875510485993</v>
       </c>
       <c r="M65" t="n">
-        <v>11.431589516961587</v>
+        <v>-7.753751020971986</v>
       </c>
     </row>
     <row r="66">
@@ -4068,40 +4119,40 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E66" t="n">
-        <v>13.118561023405313</v>
+        <v>1844.8214529699426</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.14350719282664742</v>
+        <v>-0.37345787775892225</v>
       </c>
       <c r="G66" t="n">
-        <v>0.837858941707527</v>
+        <v>0.9603315423055049</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8108354319921147</v>
+        <v>0.9523978507666059</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0014219606366225462</v>
+        <v>1.0795580989872619E-4</v>
       </c>
       <c r="J66" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K66" t="n">
         <v>1.0</v>
       </c>
       <c r="L66" t="n">
-        <v>-7.794176281530308</v>
+        <v>1.727382552085437</v>
       </c>
       <c r="M66" t="n">
-        <v>21.588352563060617</v>
+        <v>2.545234895829126</v>
       </c>
     </row>
     <row r="67">
@@ -4109,40 +4160,40 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E67" t="n">
-        <v>23.114726998539492</v>
+        <v>3264.525257226817</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.11093699952379077</v>
+        <v>-0.2585834336816405</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8081167466472472</v>
+        <v>0.9834707949344592</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7841313399781531</v>
+        <v>0.9779610599126123</v>
       </c>
       <c r="I67" t="n">
-        <v>4.030985369809067E-4</v>
+        <v>9.064299295491616E-4</v>
       </c>
       <c r="J67" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K67" t="n">
         <v>1.0</v>
       </c>
       <c r="L67" t="n">
-        <v>-8.196188938982807</v>
+        <v>5.090582990000511</v>
       </c>
       <c r="M67" t="n">
-        <v>22.392377877965615</v>
+        <v>-4.181165980001023</v>
       </c>
     </row>
     <row r="68">
@@ -4150,28 +4201,28 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E68" t="n">
-        <v>10.666849792434022</v>
+        <v>1788.1644370060737</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.005509249044379291</v>
+        <v>-0.2786763561348064</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5026775846071745</v>
+        <v>0.9965664324105866</v>
       </c>
       <c r="H68" t="n">
-        <v>0.33690344614289935</v>
+        <v>0.9954219098807822</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1799900666178895</v>
+        <v>8.54781693802824E-5</v>
       </c>
       <c r="J68" t="n">
         <v>5.0</v>
@@ -4180,10 +4231,10 @@
         <v>1.0</v>
       </c>
       <c r="L68" t="n">
-        <v>1.5080462099521634</v>
+        <v>8.678311647791517</v>
       </c>
       <c r="M68" t="n">
-        <v>2.983907580095673</v>
+        <v>-11.356623295583034</v>
       </c>
     </row>
     <row r="69">
@@ -4191,40 +4242,40 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E69" t="n">
-        <v>12.4</v>
+        <v>2760.8558831956193</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.0175890666463664</v>
+        <v>-0.2911699995808557</v>
       </c>
       <c r="G69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I69" t="e">
-        <v>#N/A</v>
+        <v>0.9793605931839509</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.975232711820741</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.093390371678231E-5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="K69" t="n">
         <v>1.0</v>
       </c>
-      <c r="L69" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#DIV/0!</v>
+      <c r="L69" t="n">
+        <v>5.825082253142624</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-5.650164506285249</v>
       </c>
     </row>
     <row r="70">
@@ -4232,40 +4283,40 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="E70" t="n">
-        <v>9.58080275870013</v>
+        <v>4.301970936237539</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0018438008574291288</v>
+        <v>-0.09191521297160032</v>
       </c>
       <c r="G70" t="n">
-        <v>0.16252009653739277</v>
+        <v>0.6239717102111342</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.11663987128347619</v>
+        <v>0.576968173987526</v>
       </c>
       <c r="I70" t="n">
-        <v>0.500972669306252</v>
+        <v>0.00655581511948427</v>
       </c>
       <c r="J70" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K70" t="n">
         <v>1.0</v>
       </c>
       <c r="L70" t="n">
-        <v>2.8552771012314144</v>
+        <v>-10.972123561021423</v>
       </c>
       <c r="M70" t="n">
-        <v>0.28944579753717115</v>
+        <v>27.944247122042846</v>
       </c>
     </row>
     <row r="71">
@@ -4273,40 +4324,40 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E71" t="n">
-        <v>145.395033483228</v>
+        <v>1.913668594567927</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.13662743058374038</v>
+        <v>-0.06767064406575521</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9622605926315964</v>
+        <v>0.38206715502898014</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9496807901754618</v>
+        <v>0.30482554940760265</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0031475425726198935</v>
+        <v>0.0568221363083485</v>
       </c>
       <c r="J71" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K71" t="n">
         <v>1.0</v>
       </c>
       <c r="L71" t="n">
-        <v>4.908675451413778</v>
+        <v>-12.84610293352955</v>
       </c>
       <c r="M71" t="n">
-        <v>-3.817350902827556</v>
+        <v>31.6922058670591</v>
       </c>
     </row>
     <row r="72">
@@ -4314,40 +4365,40 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E72" t="n">
-        <v>725.7805202651192</v>
+        <v>1.6581659644371014</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01844483444971018</v>
+        <v>-0.057345585834322164</v>
       </c>
       <c r="G72" t="n">
-        <v>0.78091943172956</v>
+        <v>0.7460016195382001</v>
       </c>
       <c r="H72" t="n">
-        <v>0.67137914759434</v>
+        <v>0.7036685561279001</v>
       </c>
       <c r="I72" t="n">
-        <v>0.11630354095449721</v>
+        <v>0.005699192666323132</v>
       </c>
       <c r="J72" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K72" t="n">
         <v>1.0</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.3729702615800101</v>
+        <v>-2.715794758480793</v>
       </c>
       <c r="M72" t="n">
-        <v>6.74594052316002</v>
+        <v>11.431589516961587</v>
       </c>
     </row>
     <row r="73">
@@ -4355,40 +4406,40 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E73" t="n">
-        <v>3.020109890207635</v>
+        <v>13.118561023405313</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.14730651935164504</v>
+        <v>-0.14350719282664742</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5153554076051579</v>
+        <v>0.837858941707527</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2730331114077368</v>
+        <v>0.8108354319921147</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2821174137749558</v>
+        <v>0.0014219606366225462</v>
       </c>
       <c r="J73" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K73" t="n">
         <v>1.0</v>
       </c>
       <c r="L73" t="n">
-        <v>-2.812712803050066</v>
+        <v>-7.794176281530308</v>
       </c>
       <c r="M73" t="n">
-        <v>11.625425606100132</v>
+        <v>21.588352563060617</v>
       </c>
     </row>
     <row r="74">
@@ -4396,40 +4447,40 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E74" t="n">
-        <v>0.67945562202424</v>
+        <v>23.114726998539492</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0030093942610995724</v>
+        <v>-0.11093699952379077</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4513561796272772</v>
+        <v>0.8081167466472472</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31419522453409643</v>
+        <v>0.7841313399781531</v>
       </c>
       <c r="I74" t="n">
-        <v>0.14387171290041284</v>
+        <v>4.030985369809067E-4</v>
       </c>
       <c r="J74" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="K74" t="n">
         <v>1.0</v>
       </c>
       <c r="L74" t="n">
-        <v>4.589515658166892</v>
+        <v>-8.196188938982807</v>
       </c>
       <c r="M74" t="n">
-        <v>-3.179031316333784</v>
+        <v>22.392377877965615</v>
       </c>
     </row>
     <row r="75">
@@ -4437,40 +4488,40 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E75" t="n">
-        <v>381.4177141545925</v>
+        <v>10.666849792434022</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.030896213312968303</v>
+        <v>-0.005509249044379291</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9067771098007514</v>
+        <v>0.5026775846071745</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8601656647011271</v>
+        <v>0.33690344614289935</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04775155038154492</v>
+        <v>0.1799900666178895</v>
       </c>
       <c r="J75" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K75" t="n">
         <v>1.0</v>
       </c>
       <c r="L75" t="n">
-        <v>-1.2830402489130015</v>
+        <v>1.5080462099521634</v>
       </c>
       <c r="M75" t="n">
-        <v>8.566080497826004</v>
+        <v>2.983907580095673</v>
       </c>
     </row>
     <row r="76">
@@ -4478,40 +4529,40 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E76" t="n">
-        <v>295.44158467026654</v>
+        <v>12.4</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03816744244033923</v>
+        <v>-0.0175890666463664</v>
       </c>
       <c r="G76" t="n">
-        <v>0.28602670770738864</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.04803561027651815</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.35307310753303</v>
+        <v>1.0</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J76" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K76" t="n">
         <v>1.0</v>
       </c>
-      <c r="L76" t="n">
-        <v>-3.043641870692213</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12.087283741384425</v>
+      <c r="L76" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77">
@@ -4519,28 +4570,28 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E77" t="n">
-        <v>111.56879223907609</v>
+        <v>9.58080275870013</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.024212161215935737</v>
+        <v>-0.0018438008574291288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3501085913894546</v>
+        <v>0.16252009653739277</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1334781218526062</v>
+        <v>-0.11663987128347619</v>
       </c>
       <c r="I77" t="n">
-        <v>0.29324420637938015</v>
+        <v>0.500972669306252</v>
       </c>
       <c r="J77" t="n">
         <v>5.0</v>
@@ -4549,10 +4600,10 @@
         <v>1.0</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.027506632827066224</v>
+        <v>2.8552771012314144</v>
       </c>
       <c r="M77" t="n">
-        <v>6.055013265654132</v>
+        <v>0.28944579753717115</v>
       </c>
     </row>
     <row r="78">
@@ -4560,28 +4611,28 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E78" t="n">
-        <v>652.2708668311753</v>
+        <v>145.395033483228</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.06149519077287295</v>
+        <v>-0.13662743058374038</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5691400524234542</v>
+        <v>0.9622605926315964</v>
       </c>
       <c r="H78" t="n">
-        <v>0.425520069897939</v>
+        <v>0.9496807901754618</v>
       </c>
       <c r="I78" t="n">
-        <v>0.14059064614680886</v>
+        <v>0.0031475425726198935</v>
       </c>
       <c r="J78" t="n">
         <v>5.0</v>
@@ -4590,10 +4641,10 @@
         <v>1.0</v>
       </c>
       <c r="L78" t="n">
-        <v>-2.4457628904970057</v>
+        <v>4.908675451413778</v>
       </c>
       <c r="M78" t="n">
-        <v>10.891525780994012</v>
+        <v>-3.817350902827556</v>
       </c>
     </row>
     <row r="79">
@@ -4601,40 +4652,40 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E79" t="n">
-        <v>764.1247891062342</v>
+        <v>725.7805202651192</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.14228278195610758</v>
+        <v>-0.01844483444971018</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8376966387391607</v>
+        <v>0.78091943172956</v>
       </c>
       <c r="H79" t="n">
-        <v>0.783595518318881</v>
+        <v>0.67137914759434</v>
       </c>
       <c r="I79" t="n">
-        <v>0.029233810695379118</v>
+        <v>0.11630354095449721</v>
       </c>
       <c r="J79" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K79" t="n">
         <v>1.0</v>
       </c>
       <c r="L79" t="n">
-        <v>-3.232937043174658</v>
+        <v>-0.3729702615800101</v>
       </c>
       <c r="M79" t="n">
-        <v>12.465874086349316</v>
+        <v>6.74594052316002</v>
       </c>
     </row>
     <row r="80">
@@ -4642,40 +4693,40 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D80" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E80" t="n">
-        <v>111.76540347325106</v>
+        <v>3.020109890207635</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.13635666952346367</v>
+        <v>-0.14730651935164504</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6293525057432217</v>
+        <v>0.5153554076051579</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5058033409909622</v>
+        <v>0.2730331114077368</v>
       </c>
       <c r="I80" t="n">
-        <v>0.10923078099671804</v>
+        <v>0.2821174137749558</v>
       </c>
       <c r="J80" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K80" t="n">
         <v>1.0</v>
       </c>
       <c r="L80" t="n">
-        <v>-5.79959661606908</v>
+        <v>-2.812712803050066</v>
       </c>
       <c r="M80" t="n">
-        <v>17.599193232138163</v>
+        <v>11.625425606100132</v>
       </c>
     </row>
     <row r="81">
@@ -4683,40 +4734,40 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E81" t="n">
-        <v>71.40896717221527</v>
+        <v>0.67945562202424</v>
       </c>
       <c r="F81" t="n">
-        <v>0.037762454370327346</v>
+        <v>0.0030093942610995724</v>
       </c>
       <c r="G81" t="n">
-        <v>0.24099311913452415</v>
+        <v>0.4513561796272772</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.012009174487300989</v>
+        <v>0.31419522453409643</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4010549493908628</v>
+        <v>0.14387171290041284</v>
       </c>
       <c r="J81" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K81" t="n">
         <v>1.0</v>
       </c>
       <c r="L81" t="n">
-        <v>-3.5715095008615716</v>
+        <v>4.589515658166892</v>
       </c>
       <c r="M81" t="n">
-        <v>13.143019001723143</v>
+        <v>-3.179031316333784</v>
       </c>
     </row>
     <row r="82">
@@ -4724,40 +4775,40 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E82" t="n">
-        <v>26.795408705510912</v>
+        <v>381.4177141545925</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.05263772442416133</v>
+        <v>-0.030896213312968303</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05062418474772098</v>
+        <v>0.9067771098007514</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.26583442033637183</v>
+        <v>0.8601656647011271</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7159592113231477</v>
+        <v>0.04775155038154492</v>
       </c>
       <c r="J82" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K82" t="n">
         <v>1.0</v>
       </c>
       <c r="L82" t="n">
-        <v>-9.692430217375767</v>
+        <v>-1.2830402489130015</v>
       </c>
       <c r="M82" t="n">
-        <v>25.384860434751534</v>
+        <v>8.566080497826004</v>
       </c>
     </row>
     <row r="83">
@@ -4765,28 +4816,28 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E83" t="n">
-        <v>714.4221802340696</v>
+        <v>295.44158467026654</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09426759193850234</v>
+        <v>0.03816744244033923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7932783300687883</v>
+        <v>0.28602670770738864</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7243711067583845</v>
+        <v>0.04803561027651815</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04268134125938146</v>
+        <v>0.35307310753303</v>
       </c>
       <c r="J83" t="n">
         <v>5.0</v>
@@ -4795,10 +4846,10 @@
         <v>1.0</v>
       </c>
       <c r="L83" t="n">
-        <v>-1.891743892179766</v>
+        <v>-3.043641870692213</v>
       </c>
       <c r="M83" t="n">
-        <v>9.783487784359533</v>
+        <v>12.087283741384425</v>
       </c>
     </row>
     <row r="84">
@@ -4806,40 +4857,40 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E84" t="n">
-        <v>40.038829072722805</v>
+        <v>111.56879223907609</v>
       </c>
       <c r="F84" t="n">
-        <v>4.06652512937943E-4</v>
+        <v>-0.024212161215935737</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04611646710708227</v>
+        <v>0.3501085913894546</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.1446602394715013</v>
+        <v>0.1334781218526062</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6437811946941095</v>
+        <v>0.29324420637938015</v>
       </c>
       <c r="J84" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K84" t="n">
         <v>1.0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.21023207442260938</v>
+        <v>-0.027506632827066224</v>
       </c>
       <c r="M84" t="n">
-        <v>5.579535851154781</v>
+        <v>6.055013265654132</v>
       </c>
     </row>
     <row r="85">
@@ -4847,40 +4898,40 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E85" t="n">
-        <v>40.51942293652184</v>
+        <v>652.2708668311753</v>
       </c>
       <c r="F85" t="n">
-        <v>4.3489342576677345E-4</v>
+        <v>-0.06149519077287295</v>
       </c>
       <c r="G85" t="n">
-        <v>0.23081417810781227</v>
+        <v>0.5691400524234542</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07697701372937471</v>
+        <v>0.425520069897939</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2751661549380219</v>
+        <v>0.14059064614680886</v>
       </c>
       <c r="J85" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K85" t="n">
         <v>1.0</v>
       </c>
       <c r="L85" t="n">
-        <v>6.130019917931055</v>
+        <v>-2.4457628904970057</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.260039835862109</v>
+        <v>10.891525780994012</v>
       </c>
     </row>
     <row r="86">
@@ -4888,40 +4939,40 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D86" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E86" t="n">
-        <v>87.29318311161602</v>
+        <v>764.1247891062342</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.0020780912068616214</v>
+        <v>-0.14228278195610758</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8631495054051995</v>
+        <v>0.8376966387391607</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8357794064862394</v>
+        <v>0.783595518318881</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0024774123622382433</v>
+        <v>0.029233810695379118</v>
       </c>
       <c r="J86" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K86" t="n">
         <v>1.0</v>
       </c>
       <c r="L86" t="n">
-        <v>5.840256194873867</v>
+        <v>-3.232937043174658</v>
       </c>
       <c r="M86" t="n">
-        <v>-5.680512389747735</v>
+        <v>12.465874086349316</v>
       </c>
     </row>
     <row r="87">
@@ -4929,28 +4980,28 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E87" t="n">
-        <v>55.42184160761311</v>
+        <v>111.76540347325106</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.13507552691726876</v>
+        <v>-0.13635666952346367</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6143340629274996</v>
+        <v>0.6293525057432217</v>
       </c>
       <c r="H87" t="n">
-        <v>0.48577875056999953</v>
+        <v>0.5058033409909622</v>
       </c>
       <c r="I87" t="n">
-        <v>0.11668685006456618</v>
+        <v>0.10923078099671804</v>
       </c>
       <c r="J87" t="n">
         <v>5.0</v>
@@ -4959,10 +5010,10 @@
         <v>1.0</v>
       </c>
       <c r="L87" t="n">
-        <v>1.3177812319420061</v>
+        <v>-5.79959661606908</v>
       </c>
       <c r="M87" t="n">
-        <v>3.3644375361159877</v>
+        <v>17.599193232138163</v>
       </c>
     </row>
     <row r="88">
@@ -4970,40 +5021,40 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E88" t="n">
-        <v>47.66117839508278</v>
+        <v>71.40896717221527</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.018990099145479722</v>
+        <v>0.037762454370327346</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4295398805475987</v>
+        <v>0.24099311913452415</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1443098208213981</v>
+        <v>-0.012009174487300989</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3446070792664917</v>
+        <v>0.4010549493908628</v>
       </c>
       <c r="J88" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K88" t="n">
         <v>1.0</v>
       </c>
       <c r="L88" t="n">
-        <v>1.8285964446226814</v>
+        <v>-3.5715095008615716</v>
       </c>
       <c r="M88" t="n">
-        <v>2.342807110754637</v>
+        <v>13.143019001723143</v>
       </c>
     </row>
     <row r="89">
@@ -5011,40 +5062,40 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E89" t="n">
-        <v>80.54187192118209</v>
+        <v>26.795408705510912</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.10188009363590705</v>
+        <v>-0.05263772442416133</v>
       </c>
       <c r="G89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="e">
-        <v>#N/A</v>
+        <v>0.05062418474772098</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.26583442033637183</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7159592113231477</v>
       </c>
       <c r="J89" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K89" t="n">
         <v>1.0</v>
       </c>
-      <c r="L89" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M89" t="e">
-        <v>#DIV/0!</v>
+      <c r="L89" t="n">
+        <v>-9.692430217375767</v>
+      </c>
+      <c r="M89" t="n">
+        <v>25.384860434751534</v>
       </c>
     </row>
     <row r="90">
@@ -5052,40 +5103,40 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E90" t="n">
-        <v>3400.1662424657006</v>
+        <v>714.4221802340696</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.0236211483044887</v>
+        <v>-0.09426759193850234</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8347129403970166</v>
+        <v>0.7932783300687883</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8071650971298527</v>
+        <v>0.7243711067583845</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0015084058403615948</v>
+        <v>0.04268134125938146</v>
       </c>
       <c r="J90" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="K90" t="n">
         <v>1.0</v>
       </c>
       <c r="L90" t="n">
-        <v>9.409630536314285</v>
+        <v>-1.891743892179766</v>
       </c>
       <c r="M90" t="n">
-        <v>-12.81926107262857</v>
+        <v>9.783487784359533</v>
       </c>
     </row>
     <row r="91">
@@ -5093,40 +5144,40 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E91" t="n">
-        <v>740.0664561938249</v>
+        <v>40.038829072722805</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.020891056731548174</v>
+        <v>4.06652512937943E-4</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7834704837572947</v>
+        <v>0.04611646710708227</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7473822310501771</v>
+        <v>-0.1446602394715013</v>
       </c>
       <c r="I91" t="n">
-        <v>0.00346958626421554</v>
+        <v>0.6437811946941095</v>
       </c>
       <c r="J91" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K91" t="n">
         <v>1.0</v>
       </c>
       <c r="L91" t="n">
-        <v>9.079874055334232</v>
+        <v>0.21023207442260938</v>
       </c>
       <c r="M91" t="n">
-        <v>-12.159748110668463</v>
+        <v>5.579535851154781</v>
       </c>
     </row>
     <row r="92">
@@ -5134,40 +5185,40 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C92" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E92" t="n">
-        <v>49.8972475671263</v>
+        <v>40.51942293652184</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.09452870310957567</v>
+        <v>4.3489342576677345E-4</v>
       </c>
       <c r="G92" t="n">
-        <v>0.939090992875722</v>
+        <v>0.23081417810781227</v>
       </c>
       <c r="H92" t="n">
-        <v>0.908636489313583</v>
+        <v>0.07697701372937471</v>
       </c>
       <c r="I92" t="n">
-        <v>0.030932926534121753</v>
+        <v>0.2751661549380219</v>
       </c>
       <c r="J92" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K92" t="n">
         <v>1.0</v>
       </c>
       <c r="L92" t="n">
-        <v>1.067183952158492</v>
+        <v>6.130019917931055</v>
       </c>
       <c r="M92" t="n">
-        <v>3.865632095683016</v>
+        <v>-6.260039835862109</v>
       </c>
     </row>
     <row r="93">
@@ -5175,40 +5226,40 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E93" t="n">
-        <v>58.93763038087006</v>
+        <v>87.29318311161602</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.033632650318455456</v>
+        <v>-0.0020780912068616214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9018393358344263</v>
+        <v>0.8631495054051995</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8527590037516395</v>
+        <v>0.8357794064862394</v>
       </c>
       <c r="I93" t="n">
-        <v>0.05034778164086493</v>
+        <v>0.0024774123622382433</v>
       </c>
       <c r="J93" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K93" t="n">
         <v>1.0</v>
       </c>
       <c r="L93" t="n">
-        <v>4.165407735341702</v>
+        <v>5.840256194873867</v>
       </c>
       <c r="M93" t="n">
-        <v>-2.3308154706834046</v>
+        <v>-5.680512389747735</v>
       </c>
     </row>
     <row r="94">
@@ -5216,40 +5267,40 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D94" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E94" t="n">
-        <v>5608.769122593508</v>
+        <v>55.42184160761311</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3533163785451326</v>
+        <v>-0.13507552691726876</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9601269190606391</v>
+        <v>0.6143340629274996</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9401903785909587</v>
+        <v>0.48577875056999953</v>
       </c>
       <c r="I94" t="n">
-        <v>0.020139336915375956</v>
+        <v>0.11668685006456618</v>
       </c>
       <c r="J94" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K94" t="n">
         <v>1.0</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.5254541487594966</v>
+        <v>1.3177812319420061</v>
       </c>
       <c r="M94" t="n">
-        <v>7.050908297518993</v>
+        <v>3.3644375361159877</v>
       </c>
     </row>
     <row r="95">
@@ -5257,28 +5308,28 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E95" t="n">
-        <v>7672.1833603750865</v>
+        <v>47.66117839508278</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.34976886135415314</v>
+        <v>-0.018990099145479722</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9267651809223632</v>
+        <v>0.4295398805475987</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8901477713835447</v>
+        <v>0.1443098208213981</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03731356043498608</v>
+        <v>0.3446070792664917</v>
       </c>
       <c r="J95" t="n">
         <v>4.0</v>
@@ -5287,10 +5338,10 @@
         <v>1.0</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.7717582727135663</v>
+        <v>1.8285964446226814</v>
       </c>
       <c r="M95" t="n">
-        <v>9.543516545427133</v>
+        <v>2.342807110754637</v>
       </c>
     </row>
     <row r="96">
@@ -5298,40 +5349,40 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E96" t="n">
-        <v>339.7225249171766</v>
+        <v>80.54187192118209</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.20196284915374493</v>
+        <v>-0.10188009363590705</v>
       </c>
       <c r="G96" t="n">
-        <v>0.5498089426587386</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.3997452568783182</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.15151142221703945</v>
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J96" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K96" t="n">
         <v>1.0</v>
       </c>
-      <c r="L96" t="n">
-        <v>-7.145818067979031</v>
-      </c>
-      <c r="M96" t="n">
-        <v>20.29163613595806</v>
+      <c r="L96" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M96" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97">
@@ -5339,40 +5390,40 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D97" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E97" t="n">
-        <v>355.5910105088812</v>
+        <v>3400.1662424657006</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2060649167231327</v>
+        <v>-0.0236211483044887</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5464667482565869</v>
+        <v>0.8347129403970166</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3952889976754492</v>
+        <v>0.8071650971298527</v>
       </c>
       <c r="I97" t="n">
-        <v>0.15344325968856534</v>
+        <v>0.0015084058403615948</v>
       </c>
       <c r="J97" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K97" t="n">
         <v>1.0</v>
       </c>
       <c r="L97" t="n">
-        <v>-7.28009024743427</v>
+        <v>9.409630536314285</v>
       </c>
       <c r="M97" t="n">
-        <v>20.56018049486854</v>
+        <v>-12.81926107262857</v>
       </c>
     </row>
     <row r="98">
@@ -5380,40 +5431,40 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D98" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E98" t="n">
-        <v>18.64954825349538</v>
+        <v>740.0664561938249</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.08913272794470338</v>
+        <v>-0.020891056731548174</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09692306650154589</v>
+        <v>0.7834704837572947</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.3546154002476811</v>
+        <v>0.7473822310501771</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6886753037397356</v>
+        <v>0.00346958626421554</v>
       </c>
       <c r="J98" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="K98" t="n">
         <v>1.0</v>
       </c>
       <c r="L98" t="n">
-        <v>-5.701985793173948</v>
+        <v>9.079874055334232</v>
       </c>
       <c r="M98" t="n">
-        <v>17.403971586347897</v>
+        <v>-12.159748110668463</v>
       </c>
     </row>
     <row r="99">
@@ -5421,28 +5472,28 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E99" t="n">
-        <v>38.51122665513761</v>
+        <v>49.8972475671263</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.007709235378351492</v>
+        <v>-0.09452870310957567</v>
       </c>
       <c r="G99" t="n">
-        <v>7.57146579307144E-4</v>
+        <v>0.939090992875722</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.49886428013103923</v>
+        <v>0.908636489313583</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9724837033867719</v>
+        <v>0.030932926534121753</v>
       </c>
       <c r="J99" t="n">
         <v>4.0</v>
@@ -5451,10 +5502,10 @@
         <v>1.0</v>
       </c>
       <c r="L99" t="n">
-        <v>-5.81776758793627</v>
+        <v>1.067183952158492</v>
       </c>
       <c r="M99" t="n">
-        <v>17.63553517587254</v>
+        <v>3.865632095683016</v>
       </c>
     </row>
     <row r="100">
@@ -5462,40 +5513,40 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E100" t="n">
-        <v>117.89806192453538</v>
+        <v>58.93763038087006</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.16382655460557896</v>
+        <v>-0.033632650318455456</v>
       </c>
       <c r="G100" t="n">
-        <v>0.12756509305657707</v>
+        <v>0.9018393358344263</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.7448698138868459</v>
+        <v>0.8527590037516395</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7674884341495873</v>
+        <v>0.05034778164086493</v>
       </c>
       <c r="J100" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K100" t="n">
         <v>1.0</v>
       </c>
       <c r="L100" t="n">
-        <v>-5.672552496977039</v>
+        <v>4.165407735341702</v>
       </c>
       <c r="M100" t="n">
-        <v>17.345104993954077</v>
+        <v>-2.3308154706834046</v>
       </c>
     </row>
     <row r="101">
@@ -5503,40 +5554,40 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E101" t="n">
-        <v>183.26662143638308</v>
+        <v>5608.769122593508</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.20635587987187942</v>
+        <v>-0.3533163785451326</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1649962325933918</v>
+        <v>0.9601269190606391</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.6700075348132164</v>
+        <v>0.9401903785909587</v>
       </c>
       <c r="I101" t="n">
-        <v>0.733709146364416</v>
+        <v>0.020139336915375956</v>
       </c>
       <c r="J101" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K101" t="n">
         <v>1.0</v>
       </c>
       <c r="L101" t="n">
-        <v>-5.91321290217919</v>
+        <v>-0.5254541487594966</v>
       </c>
       <c r="M101" t="n">
-        <v>17.82642580435838</v>
+        <v>7.050908297518993</v>
       </c>
     </row>
     <row r="102">
@@ -5544,40 +5595,40 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E102" t="n">
-        <v>706.5992830221855</v>
+        <v>7672.1833603750865</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.11752741214317836</v>
+        <v>-0.34976886135415314</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9749763412021246</v>
+        <v>0.9267651809223632</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9666351216028328</v>
+        <v>0.8901477713835447</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0016928063805693343</v>
+        <v>0.03731356043498608</v>
       </c>
       <c r="J102" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K102" t="n">
         <v>1.0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5983682866824497</v>
+        <v>-1.7717582727135663</v>
       </c>
       <c r="M102" t="n">
-        <v>4.803263426635101</v>
+        <v>9.543516545427133</v>
       </c>
     </row>
     <row r="103">
@@ -5585,40 +5636,40 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D103" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E103" t="n">
-        <v>2596.099673479765</v>
+        <v>339.7225249171766</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.1495891805359596</v>
+        <v>-0.20196284915374493</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8729668546941882</v>
+        <v>0.5498089426587386</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8412085683677353</v>
+        <v>0.3997452568783182</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0063278014404576895</v>
+        <v>0.15151142221703945</v>
       </c>
       <c r="J103" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K103" t="n">
         <v>1.0</v>
       </c>
       <c r="L103" t="n">
-        <v>-8.009340664702489</v>
+        <v>-7.145818067979031</v>
       </c>
       <c r="M103" t="n">
-        <v>22.018681329404977</v>
+        <v>20.29163613595806</v>
       </c>
     </row>
     <row r="104">
@@ -5626,40 +5677,40 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D104" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E104" t="n">
-        <v>278.79324591532617</v>
+        <v>355.5910105088812</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.29550077628409327</v>
+        <v>-0.2060649167231327</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8911496370749117</v>
+        <v>0.5464667482565869</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7822992741498234</v>
+        <v>0.3952889976754492</v>
       </c>
       <c r="I104" t="n">
-        <v>0.21404678039791966</v>
+        <v>0.15344325968856534</v>
       </c>
       <c r="J104" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K104" t="n">
         <v>1.0</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.9964422239043305</v>
+        <v>-7.28009024743427</v>
       </c>
       <c r="M104" t="n">
-        <v>7.992884447808661</v>
+        <v>20.56018049486854</v>
       </c>
     </row>
     <row r="105">
@@ -5667,40 +5718,40 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E105" t="n">
-        <v>539.2165373690989</v>
+        <v>18.64954825349538</v>
       </c>
       <c r="F105" t="n">
-        <v>0.021844414551329627</v>
+        <v>-0.08913272794470338</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9351554822929066</v>
+        <v>0.09692306650154589</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8703109645858131</v>
+        <v>-0.3546154002476811</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1639178015781662</v>
+        <v>0.6886753037397356</v>
       </c>
       <c r="J105" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K105" t="n">
         <v>1.0</v>
       </c>
       <c r="L105" t="n">
-        <v>7.667009686698195</v>
+        <v>-5.701985793173948</v>
       </c>
       <c r="M105" t="n">
-        <v>-9.33401937339639</v>
+        <v>17.403971586347897</v>
       </c>
     </row>
     <row r="106">
@@ -5708,40 +5759,40 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D106" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="E106" t="n">
-        <v>57.237681840820045</v>
+        <v>38.51122665513761</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.027867925116392106</v>
+        <v>-0.007709235378351492</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6798595109772282</v>
+        <v>7.57146579307144E-4</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6442883455302535</v>
+        <v>-0.49886428013103923</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0017923786204342138</v>
+        <v>0.9724837033867719</v>
       </c>
       <c r="J106" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="K106" t="n">
         <v>1.0</v>
       </c>
       <c r="L106" t="n">
-        <v>-5.955106504204954</v>
+        <v>-5.81776758793627</v>
       </c>
       <c r="M106" t="n">
-        <v>17.910213008409908</v>
+        <v>17.63553517587254</v>
       </c>
     </row>
     <row r="107">
@@ -5749,40 +5800,40 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E107" t="n">
-        <v>42.10738047957168</v>
+        <v>117.89806192453538</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.008666933593322636</v>
+        <v>-0.16382655460557896</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0013122659343979008</v>
+        <v>0.12756509305657707</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.24835966758200256</v>
+        <v>-0.7448698138868459</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9456859515915483</v>
+        <v>0.7674884341495873</v>
       </c>
       <c r="J107" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="K107" t="n">
         <v>1.0</v>
       </c>
       <c r="L107" t="n">
-        <v>-11.820198409232592</v>
+        <v>-5.672552496977039</v>
       </c>
       <c r="M107" t="n">
-        <v>29.640396818465184</v>
+        <v>17.345104993954077</v>
       </c>
     </row>
     <row r="108">
@@ -5790,40 +5841,40 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E108" t="n">
-        <v>1.01</v>
+        <v>183.26662143638308</v>
       </c>
       <c r="F108" t="n">
-        <v>0.24582536053927884</v>
+        <v>-0.20635587987187942</v>
       </c>
       <c r="G108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
-        <v>#N/A</v>
+        <v>0.1649962325933918</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.6700075348132164</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.733709146364416</v>
       </c>
       <c r="J108" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K108" t="n">
         <v>1.0</v>
       </c>
-      <c r="L108" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M108" t="e">
-        <v>#DIV/0!</v>
+      <c r="L108" t="n">
+        <v>-5.91321290217919</v>
+      </c>
+      <c r="M108" t="n">
+        <v>17.82642580435838</v>
       </c>
     </row>
     <row r="109">
@@ -5831,28 +5882,28 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E109" t="n">
-        <v>307.5561236660272</v>
+        <v>706.5992830221855</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.04680089018751236</v>
+        <v>-0.11752741214317836</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06110161809510227</v>
+        <v>0.9749763412021246</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.25186450920653014</v>
+        <v>0.9666351216028328</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6885063174671684</v>
+        <v>0.0016928063805693343</v>
       </c>
       <c r="J109" t="n">
         <v>5.0</v>
@@ -5861,10 +5912,10 @@
         <v>1.0</v>
       </c>
       <c r="L109" t="n">
-        <v>-6.415145286933912</v>
+        <v>0.5983682866824497</v>
       </c>
       <c r="M109" t="n">
-        <v>18.830290573867824</v>
+        <v>4.803263426635101</v>
       </c>
     </row>
     <row r="110">
@@ -5872,28 +5923,28 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E110" t="n">
-        <v>217.82559187808536</v>
+        <v>2596.099673479765</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.14949516175254865</v>
+        <v>-0.1495891805359596</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5856941367738583</v>
+        <v>0.8729668546941882</v>
       </c>
       <c r="H110" t="n">
-        <v>0.48211767096732283</v>
+        <v>0.8412085683677353</v>
       </c>
       <c r="I110" t="n">
-        <v>0.07615793778533031</v>
+        <v>0.0063278014404576895</v>
       </c>
       <c r="J110" t="n">
         <v>6.0</v>
@@ -5902,10 +5953,10 @@
         <v>1.0</v>
       </c>
       <c r="L110" t="n">
-        <v>-7.964052331182851</v>
+        <v>-8.009340664702489</v>
       </c>
       <c r="M110" t="n">
-        <v>21.9281046623657</v>
+        <v>22.018681329404977</v>
       </c>
     </row>
     <row r="111">
@@ -5913,40 +5964,40 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E111" t="n">
-        <v>170.0000000000002</v>
+        <v>278.79324591532617</v>
       </c>
       <c r="F111" t="n">
-        <v>0.007246884218312837</v>
+        <v>-0.29550077628409327</v>
       </c>
       <c r="G111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
-        <v>#N/A</v>
+        <v>0.8911496370749117</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.7822992741498234</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.21404678039791966</v>
       </c>
       <c r="J111" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K111" t="n">
         <v>1.0</v>
       </c>
-      <c r="L111" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M111" t="e">
-        <v>#DIV/0!</v>
+      <c r="L111" t="n">
+        <v>-0.9964422239043305</v>
+      </c>
+      <c r="M111" t="n">
+        <v>7.992884447808661</v>
       </c>
     </row>
     <row r="112">
@@ -5954,28 +6005,28 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D112" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="E112" t="n">
-        <v>1957.1410786985507</v>
+        <v>539.2165373690989</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.1944350149599712</v>
+        <v>0.021844414551329627</v>
       </c>
       <c r="G112" t="n">
-        <v>0.853612315114262</v>
+        <v>0.9351554822929066</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7072246302285241</v>
+        <v>0.8703109645858131</v>
       </c>
       <c r="I112" t="n">
-        <v>0.24994694487053584</v>
+        <v>0.1639178015781662</v>
       </c>
       <c r="J112" t="n">
         <v>3.0</v>
@@ -5984,10 +6035,10 @@
         <v>1.0</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.26633699551502776</v>
+        <v>7.667009686698195</v>
       </c>
       <c r="M112" t="n">
-        <v>6.532673991030055</v>
+        <v>-9.33401937339639</v>
       </c>
     </row>
     <row r="113">
@@ -5995,40 +6046,40 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="E113" t="n">
-        <v>385.75139534251474</v>
+        <v>57.237681840820045</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.10459855586346561</v>
+        <v>-0.027867925116392106</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9669865517603681</v>
+        <v>0.6798595109772282</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9504798276405522</v>
+        <v>0.6442883455302535</v>
       </c>
       <c r="I113" t="n">
-        <v>0.016645256400128955</v>
+        <v>0.0017923786204342138</v>
       </c>
       <c r="J113" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="K113" t="n">
         <v>1.0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.19736972586846235</v>
+        <v>-5.955106504204954</v>
       </c>
       <c r="M113" t="n">
-        <v>5.605260548263075</v>
+        <v>17.910213008409908</v>
       </c>
     </row>
     <row r="114">
@@ -6036,28 +6087,28 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D114" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="E114" t="n">
-        <v>425.8689180524178</v>
+        <v>42.10738047957168</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.06724879540175549</v>
+        <v>-0.008666933593322636</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8754802340273823</v>
+        <v>0.0013122659343979008</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8443502925342279</v>
+        <v>-0.24835966758200256</v>
       </c>
       <c r="I114" t="n">
-        <v>0.00607422520053208</v>
+        <v>0.9456859515915483</v>
       </c>
       <c r="J114" t="n">
         <v>6.0</v>
@@ -6066,10 +6117,10 @@
         <v>1.0</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.6578728026813736</v>
+        <v>-11.820198409232592</v>
       </c>
       <c r="M114" t="n">
-        <v>7.315745605362747</v>
+        <v>29.640396818465184</v>
       </c>
     </row>
     <row r="115">
@@ -6077,40 +6128,40 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E115" t="n">
-        <v>1.2918143882946722</v>
+        <v>1.01</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.12295332657824762</v>
+        <v>0.24582536053927884</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5970288685021848</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.539461564002497</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.014645297599901803</v>
+        <v>1.0</v>
+      </c>
+      <c r="H115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J115" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="K115" t="n">
         <v>1.0</v>
       </c>
-      <c r="L115" t="n">
-        <v>-0.6749801992368301</v>
-      </c>
-      <c r="M115" t="n">
-        <v>7.349960398473661</v>
+      <c r="L115" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M115" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="116">
@@ -6118,40 +6169,40 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E116" t="n">
-        <v>3.361507161181915</v>
+        <v>307.5561236660272</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.1311655742945394</v>
+        <v>-0.04680089018751236</v>
       </c>
       <c r="G116" t="n">
-        <v>0.43225689932693767</v>
+        <v>0.06110161809510227</v>
       </c>
       <c r="H116" t="n">
-        <v>0.35115074208792885</v>
+        <v>-0.25186450920653014</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05430064518856325</v>
+        <v>0.6885063174671684</v>
       </c>
       <c r="J116" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="K116" t="n">
         <v>1.0</v>
       </c>
       <c r="L116" t="n">
-        <v>-4.252753522763822</v>
+        <v>-6.415145286933912</v>
       </c>
       <c r="M116" t="n">
-        <v>14.505507045527644</v>
+        <v>18.830290573867824</v>
       </c>
     </row>
     <row r="117">
@@ -6159,28 +6210,28 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C117" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D117" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E117" t="n">
-        <v>481.57824140785294</v>
+        <v>217.82559187808536</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.2562816929753615</v>
+        <v>-0.14949516175254865</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7384424378882296</v>
+        <v>0.5856941367738583</v>
       </c>
       <c r="H117" t="n">
-        <v>0.673053047360287</v>
+        <v>0.48211767096732283</v>
       </c>
       <c r="I117" t="n">
-        <v>0.028291561803163733</v>
+        <v>0.07615793778533031</v>
       </c>
       <c r="J117" t="n">
         <v>6.0</v>
@@ -6189,10 +6240,10 @@
         <v>1.0</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.46184179655793545</v>
+        <v>-7.964052331182851</v>
       </c>
       <c r="M117" t="n">
-        <v>6.923683593115871</v>
+        <v>21.9281046623657</v>
       </c>
     </row>
     <row r="118">
@@ -6200,40 +6251,40 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D118" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E118" t="n">
-        <v>281.97280989368136</v>
+        <v>170.0000000000002</v>
       </c>
       <c r="F118" t="n">
-        <v>0.10148060904158773</v>
+        <v>0.007246884218312837</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5848123034045184</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.48101537925564797</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.07651649543958187</v>
+        <v>1.0</v>
+      </c>
+      <c r="H118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J118" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="K118" t="n">
         <v>1.0</v>
       </c>
-      <c r="L118" t="n">
-        <v>3.030050565524876</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-0.0601011310497519</v>
+      <c r="L118" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="119">
@@ -6241,40 +6292,40 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D119" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="E119" t="n">
-        <v>321.14972560441817</v>
+        <v>1957.1410786985507</v>
       </c>
       <c r="F119" t="n">
-        <v>0.15404433240408652</v>
+        <v>-0.1944350149599712</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8247370070709198</v>
+        <v>0.853612315114262</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7809212588386497</v>
+        <v>0.7072246302285241</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01226710643472773</v>
+        <v>0.24994694487053584</v>
       </c>
       <c r="J119" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="K119" t="n">
         <v>1.0</v>
       </c>
       <c r="L119" t="n">
-        <v>4.144464318051357</v>
+        <v>-0.26633699551502776</v>
       </c>
       <c r="M119" t="n">
-        <v>-2.288928636102714</v>
+        <v>6.532673991030055</v>
       </c>
     </row>
     <row r="120">
@@ -6282,40 +6333,40 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D120" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E120" t="n">
-        <v>164.706665655649</v>
+        <v>385.75139534251474</v>
       </c>
       <c r="F120" t="n">
-        <v>0.16371356106334098</v>
+        <v>-0.10459855586346561</v>
       </c>
       <c r="G120" t="n">
-        <v>0.31393604786813273</v>
+        <v>0.9669865517603681</v>
       </c>
       <c r="H120" t="n">
-        <v>0.14242005983516592</v>
+        <v>0.9504798276405522</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2474992343050338</v>
+        <v>0.016645256400128955</v>
       </c>
       <c r="J120" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K120" t="n">
         <v>1.0</v>
       </c>
       <c r="L120" t="n">
-        <v>-3.212478348131872</v>
+        <v>0.19736972586846235</v>
       </c>
       <c r="M120" t="n">
-        <v>12.424956696263745</v>
+        <v>5.605260548263075</v>
       </c>
     </row>
     <row r="121">
@@ -6323,28 +6374,28 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D121" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E121" t="n">
-        <v>108.63129412395776</v>
+        <v>425.8689180524178</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1475705767592556</v>
+        <v>-0.06724879540175549</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3265536861414449</v>
+        <v>0.8754802340273823</v>
       </c>
       <c r="H121" t="n">
-        <v>0.15819210767680603</v>
+        <v>0.8443502925342279</v>
       </c>
       <c r="I121" t="n">
-        <v>0.23613120853180863</v>
+        <v>0.00607422520053208</v>
       </c>
       <c r="J121" t="n">
         <v>6.0</v>
@@ -6353,10 +6404,10 @@
         <v>1.0</v>
       </c>
       <c r="L121" t="n">
-        <v>-2.415704795773809</v>
+        <v>-0.6578728026813736</v>
       </c>
       <c r="M121" t="n">
-        <v>10.831409591547619</v>
+        <v>7.315745605362747</v>
       </c>
     </row>
     <row r="122">
@@ -6364,40 +6415,40 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E122" t="n">
-        <v>104.42618606044249</v>
+        <v>1.2918143882946722</v>
       </c>
       <c r="F122" t="n">
-        <v>0.24397351348201207</v>
+        <v>-0.12295332657824762</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9363150958981705</v>
+        <v>0.5970288685021848</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9203938698727132</v>
+        <v>0.539461564002497</v>
       </c>
       <c r="I122" t="n">
-        <v>0.001554407111296092</v>
+        <v>0.014645297599901803</v>
       </c>
       <c r="J122" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K122" t="n">
         <v>1.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4.803231762543572</v>
+        <v>-0.6749801992368301</v>
       </c>
       <c r="M122" t="n">
-        <v>-3.6064635250871433</v>
+        <v>7.349960398473661</v>
       </c>
     </row>
     <row r="123">
@@ -6405,40 +6456,40 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E123" t="n">
-        <v>171.65789597833947</v>
+        <v>3.361507161181915</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.028022418411439536</v>
+        <v>-0.1311655742945394</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9878653638925006</v>
+        <v>0.43225689932693767</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9817980458387509</v>
+        <v>0.35115074208792885</v>
       </c>
       <c r="I123" t="n">
-        <v>0.006085836758273936</v>
+        <v>0.05430064518856325</v>
       </c>
       <c r="J123" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K123" t="n">
         <v>1.0</v>
       </c>
       <c r="L123" t="n">
-        <v>6.754361136374319</v>
+        <v>-4.252753522763822</v>
       </c>
       <c r="M123" t="n">
-        <v>-7.5087222727486385</v>
+        <v>14.505507045527644</v>
       </c>
     </row>
     <row r="124">
@@ -6446,40 +6497,40 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E124" t="n">
-        <v>224.0635506300734</v>
+        <v>481.57824140785294</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.023879591842853102</v>
+        <v>-0.2562816929753615</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6371808900990972</v>
+        <v>0.7384424378882296</v>
       </c>
       <c r="H124" t="n">
-        <v>0.45577133514864576</v>
+        <v>0.673053047360287</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2017638882516669</v>
+        <v>0.028291561803163733</v>
       </c>
       <c r="J124" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K124" t="n">
         <v>1.0</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.8087637333721647</v>
+        <v>-0.46184179655793545</v>
       </c>
       <c r="M124" t="n">
-        <v>7.617527466744329</v>
+        <v>6.923683593115871</v>
       </c>
     </row>
     <row r="125">
@@ -6487,40 +6538,40 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E125" t="n">
-        <v>302.1335417281</v>
+        <v>281.97280989368136</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.016555159477927073</v>
+        <v>0.10148060904158773</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6987196434243953</v>
+        <v>0.5848123034045184</v>
       </c>
       <c r="H125" t="n">
-        <v>0.548079465136593</v>
+        <v>0.48101537925564797</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1641054830755286</v>
+        <v>0.07651649543958187</v>
       </c>
       <c r="J125" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K125" t="n">
         <v>1.0</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.708869137580074</v>
+        <v>3.030050565524876</v>
       </c>
       <c r="M125" t="n">
-        <v>7.417738275160148</v>
+        <v>-0.0601011310497519</v>
       </c>
     </row>
     <row r="126">
@@ -6528,40 +6579,40 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D126" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E126" t="n">
-        <v>298.9271639854019</v>
+        <v>321.14972560441817</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.030495403896510818</v>
+        <v>0.15404433240408652</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9984433849188127</v>
+        <v>0.8247370070709198</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9968867698376254</v>
+        <v>0.7809212588386497</v>
       </c>
       <c r="I126" t="n">
-        <v>0.025123692878033517</v>
+        <v>0.01226710643472773</v>
       </c>
       <c r="J126" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="K126" t="n">
         <v>1.0</v>
       </c>
       <c r="L126" t="n">
-        <v>8.494405308278742</v>
+        <v>4.144464318051357</v>
       </c>
       <c r="M126" t="n">
-        <v>-10.988810616557483</v>
+        <v>-2.288928636102714</v>
       </c>
     </row>
     <row r="127">
@@ -6569,40 +6620,40 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E127" t="n">
-        <v>252.21306840413763</v>
+        <v>164.706665655649</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.024168070665981</v>
+        <v>0.16371356106334098</v>
       </c>
       <c r="G127" t="n">
-        <v>0.24317712217323195</v>
+        <v>0.31393604786813273</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.009097170435690582</v>
+        <v>0.14242005983516592</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3985948036739597</v>
+        <v>0.2474992343050338</v>
       </c>
       <c r="J127" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K127" t="n">
         <v>1.0</v>
       </c>
       <c r="L127" t="n">
-        <v>-6.42386944198709</v>
+        <v>-3.212478348131872</v>
       </c>
       <c r="M127" t="n">
-        <v>18.84773888397418</v>
+        <v>12.424956696263745</v>
       </c>
     </row>
     <row r="128">
@@ -6610,40 +6661,40 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E128" t="n">
-        <v>295.13487174122525</v>
+        <v>108.63129412395776</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.015413208977745889</v>
+        <v>0.1475705767592556</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9341302027528293</v>
+        <v>0.3265536861414449</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8682604055056586</v>
+        <v>0.15819210767680603</v>
       </c>
       <c r="I128" t="n">
-        <v>0.165238264463309</v>
+        <v>0.23613120853180863</v>
       </c>
       <c r="J128" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="K128" t="n">
         <v>1.0</v>
       </c>
       <c r="L128" t="n">
-        <v>2.1670190744049243</v>
+        <v>-2.415704795773809</v>
       </c>
       <c r="M128" t="n">
-        <v>1.6659618511901515</v>
+        <v>10.831409591547619</v>
       </c>
     </row>
     <row r="129">
@@ -6651,40 +6702,40 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D129" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E129" t="n">
-        <v>4.523279847633883</v>
+        <v>104.42618606044249</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.009437521222255609</v>
+        <v>0.24397351348201207</v>
       </c>
       <c r="G129" t="n">
-        <v>0.8131829324396639</v>
+        <v>0.9363150958981705</v>
       </c>
       <c r="H129" t="n">
-        <v>0.7988123887811764</v>
+        <v>0.9203938698727132</v>
       </c>
       <c r="I129" t="n">
-        <v>4.358063952097031E-6</v>
+        <v>0.001554407111296092</v>
       </c>
       <c r="J129" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="K129" t="n">
         <v>1.0</v>
       </c>
       <c r="L129" t="n">
-        <v>-9.479784416176681</v>
+        <v>4.803231762543572</v>
       </c>
       <c r="M129" t="n">
-        <v>24.959568832353362</v>
+        <v>-3.6064635250871433</v>
       </c>
     </row>
     <row r="130">
@@ -6692,40 +6743,40 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D130" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E130" t="n">
-        <v>21.470001442040232</v>
+        <v>171.65789597833947</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.05704167921243583</v>
+        <v>-0.028022418411439536</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9277433749349069</v>
+        <v>0.9878653638925006</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9174209999256079</v>
+        <v>0.9817980458387509</v>
       </c>
       <c r="I130" t="n">
-        <v>3.0380402275737055E-5</v>
+        <v>0.006085836758273936</v>
       </c>
       <c r="J130" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="K130" t="n">
         <v>1.0</v>
       </c>
       <c r="L130" t="n">
-        <v>-1.3002369424922384</v>
+        <v>6.754361136374319</v>
       </c>
       <c r="M130" t="n">
-        <v>8.600473884984478</v>
+        <v>-7.5087222727486385</v>
       </c>
     </row>
     <row r="131">
@@ -6733,40 +6784,40 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E131" t="n">
-        <v>25.754844801595283</v>
+        <v>224.0635506300734</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.017053991383842417</v>
+        <v>-0.023879591842853102</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9547706565825285</v>
+        <v>0.6371808900990972</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9457247878990341</v>
+        <v>0.45577133514864576</v>
       </c>
       <c r="I131" t="n">
-        <v>1.5016776814293477E-4</v>
+        <v>0.2017638882516669</v>
       </c>
       <c r="J131" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="K131" t="n">
         <v>1.0</v>
       </c>
       <c r="L131" t="n">
-        <v>9.780877909906621</v>
+        <v>-0.8087637333721647</v>
       </c>
       <c r="M131" t="n">
-        <v>-13.561755819813243</v>
+        <v>7.617527466744329</v>
       </c>
     </row>
     <row r="132">
@@ -6774,40 +6825,40 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D132" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E132" t="n">
-        <v>9.96840922167058</v>
+        <v>302.1335417281</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.01100502860328131</v>
+        <v>-0.016555159477927073</v>
       </c>
       <c r="G132" t="n">
-        <v>0.9118899917457972</v>
+        <v>0.6987196434243953</v>
       </c>
       <c r="H132" t="n">
-        <v>0.904547491057947</v>
+        <v>0.548079465136593</v>
       </c>
       <c r="I132" t="n">
-        <v>1.0978367256137221E-7</v>
+        <v>0.1641054830755286</v>
       </c>
       <c r="J132" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="K132" t="n">
         <v>1.0</v>
       </c>
       <c r="L132" t="n">
-        <v>-3.872451887199554</v>
+        <v>-0.708869137580074</v>
       </c>
       <c r="M132" t="n">
-        <v>13.74490377439911</v>
+        <v>7.417738275160148</v>
       </c>
     </row>
     <row r="133">
@@ -6815,40 +6866,40 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D133" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E133" t="n">
-        <v>8.53795000740333</v>
+        <v>298.9271639854019</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.008160716337143497</v>
+        <v>-0.030495403896510818</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5935893562830612</v>
+        <v>0.9984433849188127</v>
       </c>
       <c r="H133" t="n">
-        <v>0.5597218026399831</v>
+        <v>0.9968867698376254</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0012618301116523085</v>
+        <v>0.025123692878033517</v>
       </c>
       <c r="J133" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="K133" t="n">
         <v>1.0</v>
       </c>
       <c r="L133" t="n">
-        <v>-12.862523230895793</v>
+        <v>8.494405308278742</v>
       </c>
       <c r="M133" t="n">
-        <v>31.725046461791585</v>
+        <v>-10.988810616557483</v>
       </c>
     </row>
     <row r="134">
@@ -6856,28 +6907,28 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E134" t="n">
-        <v>81.17456144746379</v>
+        <v>252.21306840413763</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.05299650315982608</v>
+        <v>-0.024168070665981</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9528606578823932</v>
+        <v>0.24317712217323195</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9371475438431909</v>
+        <v>-0.009097170435690582</v>
       </c>
       <c r="I134" t="n">
-        <v>0.004406771853839102</v>
+        <v>0.3985948036739597</v>
       </c>
       <c r="J134" t="n">
         <v>5.0</v>
@@ -6886,10 +6937,10 @@
         <v>1.0</v>
       </c>
       <c r="L134" t="n">
-        <v>4.146300546697914</v>
+        <v>-6.42386944198709</v>
       </c>
       <c r="M134" t="n">
-        <v>-2.2926010933958274</v>
+        <v>18.84773888397418</v>
       </c>
     </row>
     <row r="135">
@@ -6897,40 +6948,40 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D135" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E135" t="n">
-        <v>99.59219418870215</v>
+        <v>295.13487174122525</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.022409054483900383</v>
+        <v>-0.015413208977745889</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8349064684990442</v>
+        <v>0.9341302027528293</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8113216782846219</v>
+        <v>0.8682604055056586</v>
       </c>
       <c r="I135" t="n">
-        <v>5.701764578721676E-4</v>
+        <v>0.165238264463309</v>
       </c>
       <c r="J135" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="K135" t="n">
         <v>1.0</v>
       </c>
       <c r="L135" t="n">
-        <v>2.9255976593893034</v>
+        <v>2.1670190744049243</v>
       </c>
       <c r="M135" t="n">
-        <v>0.14880468122139323</v>
+        <v>1.6659618511901515</v>
       </c>
     </row>
     <row r="136">
@@ -6938,40 +6989,40 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D136" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E136" t="n">
-        <v>33.00232943326773</v>
+        <v>4.523279847633883</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.01097819216707405</v>
+        <v>-0.009437521222255609</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9270001961886146</v>
+        <v>0.8131829324396639</v>
       </c>
       <c r="H136" t="n">
-        <v>0.9209168792043325</v>
+        <v>0.7988123887811764</v>
       </c>
       <c r="I136" t="n">
-        <v>3.5260463269532274E-8</v>
+        <v>4.358063952097031E-6</v>
       </c>
       <c r="J136" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K136" t="n">
         <v>1.0</v>
       </c>
       <c r="L136" t="n">
-        <v>-2.3531497925976876</v>
+        <v>-9.479784416176681</v>
       </c>
       <c r="M136" t="n">
-        <v>10.706299585195374</v>
+        <v>24.959568832353362</v>
       </c>
     </row>
     <row r="137">
@@ -6979,40 +7030,40 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E137" t="n">
-        <v>147.04854354341524</v>
+        <v>21.470001442040232</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.05786306394669963</v>
+        <v>-0.05704167921243583</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7918821166728369</v>
+        <v>0.9277433749349069</v>
       </c>
       <c r="H137" t="n">
-        <v>0.7687579074142632</v>
+        <v>0.9174209999256079</v>
       </c>
       <c r="I137" t="n">
-        <v>2.4318267359603736E-4</v>
+        <v>3.0380402275737055E-5</v>
       </c>
       <c r="J137" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K137" t="n">
         <v>1.0</v>
       </c>
       <c r="L137" t="n">
-        <v>-26.482495277770035</v>
+        <v>-1.3002369424922384</v>
       </c>
       <c r="M137" t="n">
-        <v>58.96499055554007</v>
+        <v>8.600473884984478</v>
       </c>
     </row>
     <row r="138">
@@ -7020,40 +7071,40 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E138" t="n">
-        <v>530.9161302893134</v>
+        <v>25.754844801595283</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.06188402047064614</v>
+        <v>-0.017053991383842417</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8013179041572719</v>
+        <v>0.9547706565825285</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7729347476083107</v>
+        <v>0.9457247878990341</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0011071663249359502</v>
+        <v>1.5016776814293477E-4</v>
       </c>
       <c r="J138" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="K138" t="n">
         <v>1.0</v>
       </c>
       <c r="L138" t="n">
-        <v>-7.700392364708082</v>
+        <v>9.780877909906621</v>
       </c>
       <c r="M138" t="n">
-        <v>21.400784729416166</v>
+        <v>-13.561755819813243</v>
       </c>
     </row>
     <row r="139">
@@ -7061,40 +7112,40 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C139" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D139" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E139" t="n">
-        <v>334.9236054138994</v>
+        <v>9.96840922167058</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.032180581466120316</v>
+        <v>-0.01100502860328131</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9190222342391859</v>
+        <v>0.9118899917457972</v>
       </c>
       <c r="H139" t="n">
-        <v>0.892029645652248</v>
+        <v>0.904547491057947</v>
       </c>
       <c r="I139" t="n">
-        <v>0.010028439826300223</v>
+        <v>1.0978367256137221E-7</v>
       </c>
       <c r="J139" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K139" t="n">
         <v>1.0</v>
       </c>
       <c r="L139" t="n">
-        <v>5.268334848774816</v>
+        <v>-3.872451887199554</v>
       </c>
       <c r="M139" t="n">
-        <v>-4.536669697549632</v>
+        <v>13.74490377439911</v>
       </c>
     </row>
     <row r="140">
@@ -7102,28 +7153,28 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D140" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E140" t="n">
-        <v>1463.7647932261173</v>
+        <v>8.53795000740333</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.03937583678953466</v>
+        <v>-0.008160716337143497</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8175988285040837</v>
+        <v>0.5935893562830612</v>
       </c>
       <c r="H140" t="n">
-        <v>0.802398730879424</v>
+        <v>0.5597218026399831</v>
       </c>
       <c r="I140" t="n">
-        <v>9.047080708935615E-6</v>
+        <v>0.0012618301116523085</v>
       </c>
       <c r="J140" t="n">
         <v>14.0</v>
@@ -7132,10 +7183,10 @@
         <v>1.0</v>
       </c>
       <c r="L140" t="n">
-        <v>-27.59750484566225</v>
+        <v>-12.862523230895793</v>
       </c>
       <c r="M140" t="n">
-        <v>61.1950096913245</v>
+        <v>31.725046461791585</v>
       </c>
     </row>
     <row r="141">
@@ -7143,40 +7194,40 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D141" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E141" t="n">
-        <v>1.4325567368249248</v>
+        <v>81.17456144746379</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.010333529401474681</v>
+        <v>-0.05299650315982608</v>
       </c>
       <c r="G141" t="n">
-        <v>0.5355890866433755</v>
+        <v>0.9528606578823932</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4968881771969901</v>
+        <v>0.9371475438431909</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0029263036397959453</v>
+        <v>0.004406771853839102</v>
       </c>
       <c r="J141" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="K141" t="n">
         <v>1.0</v>
       </c>
       <c r="L141" t="n">
-        <v>-17.784353665578546</v>
+        <v>4.146300546697914</v>
       </c>
       <c r="M141" t="n">
-        <v>41.56870733115709</v>
+        <v>-2.2926010933958274</v>
       </c>
     </row>
     <row r="142">
@@ -7184,40 +7235,40 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C142" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E142" t="n">
-        <v>17.120686205785034</v>
+        <v>99.59219418870215</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.04260636665433507</v>
+        <v>-0.022409054483900383</v>
       </c>
       <c r="G142" t="n">
-        <v>0.8003989066659115</v>
+        <v>0.8349064684990442</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7782210074065683</v>
+        <v>0.8113216782846219</v>
       </c>
       <c r="I142" t="n">
-        <v>2.0064854857345082E-4</v>
+        <v>5.701764578721676E-4</v>
       </c>
       <c r="J142" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K142" t="n">
         <v>1.0</v>
       </c>
       <c r="L142" t="n">
-        <v>-7.900935615327782</v>
+        <v>2.9255976593893034</v>
       </c>
       <c r="M142" t="n">
-        <v>21.801871230655564</v>
+        <v>0.14880468122139323</v>
       </c>
     </row>
     <row r="143">
@@ -7225,40 +7276,40 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C143" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D143" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E143" t="n">
-        <v>9.193183626456351</v>
+        <v>33.00232943326773</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.052744877687022074</v>
+        <v>-0.01097819216707405</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4184163581797957</v>
+        <v>0.9270001961886146</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.16316728364040856</v>
+        <v>0.9209168792043325</v>
       </c>
       <c r="I143" t="n">
-        <v>0.5521710264787664</v>
+        <v>3.5260463269532274E-8</v>
       </c>
       <c r="J143" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="K143" t="n">
         <v>1.0</v>
       </c>
       <c r="L143" t="n">
-        <v>-1.0032740324019989</v>
+        <v>-2.3531497925976876</v>
       </c>
       <c r="M143" t="n">
-        <v>8.006548064803997</v>
+        <v>10.706299585195374</v>
       </c>
     </row>
     <row r="144">
@@ -7266,40 +7317,40 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C144" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D144" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E144" t="n">
-        <v>17.376776569904504</v>
+        <v>147.04854354341524</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.028750005623968684</v>
+        <v>-0.05786306394669963</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9177328072048744</v>
+        <v>0.7918821166728369</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9108772078052806</v>
+        <v>0.7687579074142632</v>
       </c>
       <c r="I144" t="n">
-        <v>7.253876277022266E-8</v>
+        <v>2.4318267359603736E-4</v>
       </c>
       <c r="J144" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="K144" t="n">
         <v>1.0</v>
       </c>
       <c r="L144" t="n">
-        <v>-16.662765586627145</v>
+        <v>-26.482495277770035</v>
       </c>
       <c r="M144" t="n">
-        <v>39.32553117325429</v>
+        <v>58.96499055554007</v>
       </c>
     </row>
     <row r="145">
@@ -7307,40 +7358,40 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D145" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E145" t="n">
-        <v>22.817421226861686</v>
+        <v>530.9161302893134</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.018003800174580295</v>
+        <v>-0.06188402047064614</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8007305074607722</v>
+        <v>0.8013179041572719</v>
       </c>
       <c r="H145" t="n">
-        <v>0.7675189253709009</v>
+        <v>0.7729347476083107</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0026831732650074553</v>
+        <v>0.0011071663249359502</v>
       </c>
       <c r="J145" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K145" t="n">
         <v>1.0</v>
       </c>
       <c r="L145" t="n">
-        <v>-5.207953084473851</v>
+        <v>-7.700392364708082</v>
       </c>
       <c r="M145" t="n">
-        <v>16.4159061689477</v>
+        <v>21.400784729416166</v>
       </c>
     </row>
     <row r="146">
@@ -7348,40 +7399,40 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E146" t="n">
-        <v>103.9412738216902</v>
+        <v>334.9236054138994</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.010068322273444733</v>
+        <v>-0.032180581466120316</v>
       </c>
       <c r="G146" t="n">
-        <v>0.7852310912855045</v>
+        <v>0.9190222342391859</v>
       </c>
       <c r="H146" t="n">
-        <v>0.7494362731664219</v>
+        <v>0.892029645652248</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0033829145154458977</v>
+        <v>0.010028439826300223</v>
       </c>
       <c r="J146" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="K146" t="n">
         <v>1.0</v>
       </c>
       <c r="L146" t="n">
-        <v>-1.4438596198524276</v>
+        <v>5.268334848774816</v>
       </c>
       <c r="M146" t="n">
-        <v>8.887719239704856</v>
+        <v>-4.536669697549632</v>
       </c>
     </row>
     <row r="147">
@@ -7389,40 +7440,40 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D147" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E147" t="n">
-        <v>30.17873778407806</v>
+        <v>1463.7647932261173</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.01380559390719189</v>
+        <v>-0.03937583678953466</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6755281697537673</v>
+        <v>0.8175988285040837</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6214495313793951</v>
+        <v>0.802398730879424</v>
       </c>
       <c r="I147" t="n">
-        <v>0.012302824931050104</v>
+        <v>9.047080708935615E-6</v>
       </c>
       <c r="J147" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="K147" t="n">
         <v>1.0</v>
       </c>
       <c r="L147" t="n">
-        <v>-5.723338150031523</v>
+        <v>-27.59750484566225</v>
       </c>
       <c r="M147" t="n">
-        <v>17.446676300063046</v>
+        <v>61.1950096913245</v>
       </c>
     </row>
     <row r="148">
@@ -7430,40 +7481,40 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D148" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E148" t="n">
-        <v>122.46560739342725</v>
+        <v>1.4325567368249248</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.16564017756634</v>
+        <v>-0.010333529401474681</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5995547547815449</v>
+        <v>0.5355890866433755</v>
       </c>
       <c r="H148" t="n">
-        <v>0.49944344347693104</v>
+        <v>0.4968881771969901</v>
       </c>
       <c r="I148" t="n">
-        <v>0.07065656764295371</v>
+        <v>0.0029263036397959453</v>
       </c>
       <c r="J148" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="K148" t="n">
         <v>1.0</v>
       </c>
       <c r="L148" t="n">
-        <v>-12.349706977265674</v>
+        <v>-17.784353665578546</v>
       </c>
       <c r="M148" t="n">
-        <v>30.699413954531348</v>
+        <v>41.56870733115709</v>
       </c>
     </row>
     <row r="149">
@@ -7471,40 +7522,40 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E149" t="n">
-        <v>354.5466676630781</v>
+        <v>17.120686205785034</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.15259624524333043</v>
+        <v>-0.04260636665433507</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6751164860618254</v>
+        <v>0.8003989066659115</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5938956075772818</v>
+        <v>0.7782210074065683</v>
       </c>
       <c r="I149" t="n">
-        <v>0.044874238593917475</v>
+        <v>2.0064854857345082E-4</v>
       </c>
       <c r="J149" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="K149" t="n">
         <v>1.0</v>
       </c>
       <c r="L149" t="n">
-        <v>-10.611161692665325</v>
+        <v>-7.900935615327782</v>
       </c>
       <c r="M149" t="n">
-        <v>27.22232338533065</v>
+        <v>21.801871230655564</v>
       </c>
     </row>
     <row r="150">
@@ -7512,40 +7563,40 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C150" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D150" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E150" t="n">
-        <v>85.11447681652923</v>
+        <v>9.193183626456351</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.023772855394465362</v>
+        <v>-0.052744877687022074</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5269243179733503</v>
+        <v>0.4184163581797957</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3692324239644671</v>
+        <v>-0.16316728364040856</v>
       </c>
       <c r="I150" t="n">
-        <v>0.16500309887360132</v>
+        <v>0.5521710264787664</v>
       </c>
       <c r="J150" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K150" t="n">
         <v>1.0</v>
       </c>
       <c r="L150" t="n">
-        <v>-3.9351388910454577</v>
+        <v>-1.0032740324019989</v>
       </c>
       <c r="M150" t="n">
-        <v>13.870277782090916</v>
+        <v>8.006548064803997</v>
       </c>
     </row>
     <row r="151">
@@ -7553,40 +7604,40 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C151" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D151" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E151" t="n">
-        <v>187.63390966681328</v>
+        <v>17.376776569904504</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.015470455061992778</v>
+        <v>-0.028750005623968684</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6469274548004663</v>
+        <v>0.9177328072048744</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5880820306005441</v>
+        <v>0.9108772078052806</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01609076821979457</v>
+        <v>7.253876277022266E-8</v>
       </c>
       <c r="J151" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="K151" t="n">
         <v>1.0</v>
       </c>
       <c r="L151" t="n">
-        <v>-7.654235618278616</v>
+        <v>-16.662765586627145</v>
       </c>
       <c r="M151" t="n">
-        <v>21.30847123655723</v>
+        <v>39.32553117325429</v>
       </c>
     </row>
     <row r="152">
@@ -7594,40 +7645,40 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="E152" t="n">
-        <v>17.64089396916398</v>
+        <v>22.817421226861686</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.025155418270310724</v>
+        <v>-0.018003800174580295</v>
       </c>
       <c r="G152" t="n">
-        <v>0.590680344708152</v>
+        <v>0.8007305074607722</v>
       </c>
       <c r="H152" t="n">
-        <v>0.45424045961086934</v>
+        <v>0.7675189253709009</v>
       </c>
       <c r="I152" t="n">
-        <v>0.12891861395553506</v>
+        <v>0.0026831732650074553</v>
       </c>
       <c r="J152" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K152" t="n">
         <v>1.0</v>
       </c>
       <c r="L152" t="n">
-        <v>-7.494151394631556</v>
+        <v>-5.207953084473851</v>
       </c>
       <c r="M152" t="n">
-        <v>20.988302789263113</v>
+        <v>16.4159061689477</v>
       </c>
     </row>
     <row r="153">
@@ -7635,40 +7686,40 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C153" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E153" t="n">
-        <v>21.032273407991713</v>
+        <v>103.9412738216902</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.02339165711658323</v>
+        <v>-0.010068322273444733</v>
       </c>
       <c r="G153" t="n">
-        <v>0.771513510116648</v>
+        <v>0.7852310912855045</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6953513468221975</v>
+        <v>0.7494362731664219</v>
       </c>
       <c r="I153" t="n">
-        <v>0.049988454433041736</v>
+        <v>0.0033829145154458977</v>
       </c>
       <c r="J153" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K153" t="n">
         <v>1.0</v>
       </c>
       <c r="L153" t="n">
-        <v>-5.0161814302460535</v>
+        <v>-1.4438596198524276</v>
       </c>
       <c r="M153" t="n">
-        <v>16.032362860492107</v>
+        <v>8.887719239704856</v>
       </c>
     </row>
     <row r="154">
@@ -7676,28 +7727,28 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="E154" t="n">
-        <v>0.04794227439281962</v>
+        <v>30.17873778407806</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.0021156703751699017</v>
+        <v>-0.01380559390719189</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07319932683995421</v>
+        <v>0.6755281697537673</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.08126745202005337</v>
+        <v>0.6214495313793951</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5169235505799517</v>
+        <v>0.012302824931050104</v>
       </c>
       <c r="J154" t="n">
         <v>8.0</v>
@@ -7706,10 +7757,10 @@
         <v>1.0</v>
       </c>
       <c r="L154" t="n">
-        <v>-12.968768499497733</v>
+        <v>-5.723338150031523</v>
       </c>
       <c r="M154" t="n">
-        <v>31.937536998995466</v>
+        <v>17.446676300063046</v>
       </c>
     </row>
     <row r="155">
@@ -7717,40 +7768,40 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D155" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E155" t="n">
-        <v>0.04204572729223787</v>
+        <v>122.46560739342725</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.367883709941316E-4</v>
+        <v>-0.16564017756634</v>
       </c>
       <c r="G155" t="n">
-        <v>0.006857677598304299</v>
+        <v>0.5995547547815449</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.13501979703050937</v>
+        <v>0.49944344347693104</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8322597311746927</v>
+        <v>0.07065656764295371</v>
       </c>
       <c r="J155" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="K155" t="n">
         <v>1.0</v>
       </c>
       <c r="L155" t="n">
-        <v>-5.565163538731687</v>
+        <v>-12.349706977265674</v>
       </c>
       <c r="M155" t="n">
-        <v>17.130327077463374</v>
+        <v>30.699413954531348</v>
       </c>
     </row>
     <row r="156">
@@ -7758,40 +7809,40 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C156" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D156" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E156" t="n">
-        <v>0.009117060410573443</v>
+        <v>354.5466676630781</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.0026728976219886984</v>
+        <v>-0.15259624524333043</v>
       </c>
       <c r="G156" t="n">
-        <v>0.28589705461008075</v>
+        <v>0.6751164860618254</v>
       </c>
       <c r="H156" t="n">
-        <v>0.19663418643634079</v>
+        <v>0.5938956075772818</v>
       </c>
       <c r="I156" t="n">
-        <v>0.11129807148055006</v>
+        <v>0.044874238593917475</v>
       </c>
       <c r="J156" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="K156" t="n">
         <v>1.0</v>
       </c>
       <c r="L156" t="n">
-        <v>-3.2260589838731106</v>
+        <v>-10.611161692665325</v>
       </c>
       <c r="M156" t="n">
-        <v>12.452117967746222</v>
+        <v>27.22232338533065</v>
       </c>
     </row>
     <row r="157">
@@ -7799,40 +7850,40 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E157" t="n">
-        <v>9.00221562649645</v>
+        <v>85.11447681652923</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.0011527324102556774</v>
+        <v>-0.023772855394465362</v>
       </c>
       <c r="G157" t="n">
-        <v>0.16050188026722992</v>
+        <v>0.5269243179733503</v>
       </c>
       <c r="H157" t="n">
-        <v>0.05556461530063361</v>
+        <v>0.3692324239644671</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2512599799626516</v>
+        <v>0.16500309887360132</v>
       </c>
       <c r="J157" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K157" t="n">
         <v>1.0</v>
       </c>
       <c r="L157" t="n">
-        <v>-4.936003756448039</v>
+        <v>-3.9351388910454577</v>
       </c>
       <c r="M157" t="n">
-        <v>15.872007512896078</v>
+        <v>13.870277782090916</v>
       </c>
     </row>
     <row r="158">
@@ -7840,28 +7891,28 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C158" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E158" t="n">
-        <v>7.2837654908465E-4</v>
+        <v>187.63390966681328</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.003854418156639094</v>
+        <v>-0.015470455061992778</v>
       </c>
       <c r="G158" t="n">
-        <v>0.39177461449134127</v>
+        <v>0.6469274548004663</v>
       </c>
       <c r="H158" t="n">
-        <v>0.29040371690656475</v>
+        <v>0.5880820306005441</v>
       </c>
       <c r="I158" t="n">
-        <v>0.09689932779229805</v>
+        <v>0.01609076821979457</v>
       </c>
       <c r="J158" t="n">
         <v>8.0</v>
@@ -7870,10 +7921,10 @@
         <v>1.0</v>
       </c>
       <c r="L158" t="n">
-        <v>-9.444242647093125</v>
+        <v>-7.654235618278616</v>
       </c>
       <c r="M158" t="n">
-        <v>24.88848529418625</v>
+        <v>21.30847123655723</v>
       </c>
     </row>
     <row r="159">
@@ -7881,40 +7932,40 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D159" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E159" t="n">
-        <v>0.16473439069004564</v>
+        <v>17.64089396916398</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.008538740310680427</v>
+        <v>-0.025155418270310724</v>
       </c>
       <c r="G159" t="n">
-        <v>0.5050915365706986</v>
+        <v>0.590680344708152</v>
       </c>
       <c r="H159" t="n">
-        <v>0.4432279786420359</v>
+        <v>0.45424045961086934</v>
       </c>
       <c r="I159" t="n">
-        <v>0.021236836372485954</v>
+        <v>0.12891861395553506</v>
       </c>
       <c r="J159" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K159" t="n">
         <v>1.0</v>
       </c>
       <c r="L159" t="n">
-        <v>-16.58258274441683</v>
+        <v>-7.494151394631556</v>
       </c>
       <c r="M159" t="n">
-        <v>39.16516548883366</v>
+        <v>20.988302789263113</v>
       </c>
     </row>
     <row r="160">
@@ -7922,40 +7973,40 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D160" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="E160" t="n">
-        <v>82.76952803750568</v>
+        <v>21.032273407991713</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.41902032409274E-4</v>
+        <v>-0.02339165711658323</v>
       </c>
       <c r="G160" t="n">
-        <v>0.2433125767786807</v>
+        <v>0.771513510116648</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.13503113483197904</v>
+        <v>0.6953513468221975</v>
       </c>
       <c r="I160" t="n">
-        <v>0.5067327531867936</v>
+        <v>0.049988454433041736</v>
       </c>
       <c r="J160" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K160" t="n">
         <v>1.0</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.34121699408548256</v>
+        <v>-5.0161814302460535</v>
       </c>
       <c r="M160" t="n">
-        <v>6.682433988170965</v>
+        <v>16.032362860492107</v>
       </c>
     </row>
     <row r="161">
@@ -7963,28 +8014,28 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D161" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="E161" t="n">
-        <v>41.97032489052626</v>
+        <v>0.04794227439281962</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.004019667822368876</v>
+        <v>-0.0021156703751699017</v>
       </c>
       <c r="G161" t="n">
-        <v>0.2651547402307298</v>
+        <v>0.07319932683995421</v>
       </c>
       <c r="H161" t="n">
-        <v>0.1426805302691847</v>
+        <v>-0.08126745202005337</v>
       </c>
       <c r="I161" t="n">
-        <v>0.19159741438553343</v>
+        <v>0.5169235505799517</v>
       </c>
       <c r="J161" t="n">
         <v>8.0</v>
@@ -7993,10 +8044,10 @@
         <v>1.0</v>
       </c>
       <c r="L161" t="n">
-        <v>-12.89326219306282</v>
+        <v>-12.968768499497733</v>
       </c>
       <c r="M161" t="n">
-        <v>31.78652438612564</v>
+        <v>31.937536998995466</v>
       </c>
     </row>
     <row r="162">
@@ -8004,40 +8055,40 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D162" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E162" t="n">
-        <v>231.6022845039325</v>
+        <v>0.04204572729223787</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.001769409663358197</v>
+        <v>-2.367883709941316E-4</v>
       </c>
       <c r="G162" t="n">
-        <v>0.8223723095505806</v>
+        <v>0.006857677598304299</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8152672019326038</v>
+        <v>-0.13501979703050937</v>
       </c>
       <c r="I162" t="n">
-        <v>7.187283881335982E-11</v>
+        <v>0.8322597311746927</v>
       </c>
       <c r="J162" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="K162" t="n">
         <v>1.0</v>
       </c>
       <c r="L162" t="n">
-        <v>3.8727864911075796</v>
+        <v>-5.565163538731687</v>
       </c>
       <c r="M162" t="n">
-        <v>-1.745572982215159</v>
+        <v>17.130327077463374</v>
       </c>
     </row>
     <row r="163">
@@ -8045,40 +8096,40 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C163" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D163" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E163" t="n">
-        <v>229.97446649699108</v>
+        <v>0.009117060410573443</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.001786598379871425</v>
+        <v>-0.0026728976219886984</v>
       </c>
       <c r="G163" t="n">
-        <v>0.68359719421686</v>
+        <v>0.28589705461008075</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6709410819855344</v>
+        <v>0.19663418643634079</v>
       </c>
       <c r="I163" t="n">
-        <v>1.0642914853341614E-7</v>
+        <v>0.11129807148055006</v>
       </c>
       <c r="J163" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="K163" t="n">
         <v>1.0</v>
       </c>
       <c r="L163" t="n">
-        <v>-6.847386864677014</v>
+        <v>-3.2260589838731106</v>
       </c>
       <c r="M163" t="n">
-        <v>19.694773729354026</v>
+        <v>12.452117967746222</v>
       </c>
     </row>
     <row r="164">
@@ -8086,28 +8137,28 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C164" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D164" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="E164" t="n">
-        <v>26.455297981736905</v>
+        <v>9.00221562649645</v>
       </c>
       <c r="F164" t="n">
-        <v>-1.6370793759794335E-4</v>
+        <v>-0.0011527324102556774</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0060575865372329415</v>
+        <v>0.16050188026722992</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.11818521514561287</v>
+        <v>0.05556461530063361</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8307733705945712</v>
+        <v>0.2512599799626516</v>
       </c>
       <c r="J164" t="n">
         <v>10.0</v>
@@ -8116,10 +8167,10 @@
         <v>1.0</v>
       </c>
       <c r="L164" t="n">
-        <v>-16.34937982545166</v>
+        <v>-4.936003756448039</v>
       </c>
       <c r="M164" t="n">
-        <v>38.69875965090332</v>
+        <v>15.872007512896078</v>
       </c>
     </row>
     <row r="165">
@@ -8127,40 +8178,40 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C165" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D165" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E165" t="n">
-        <v>81.75222746794093</v>
+        <v>7.2837654908465E-4</v>
       </c>
       <c r="F165" t="n">
-        <v>-9.296601741732147E-4</v>
+        <v>-0.003854418156639094</v>
       </c>
       <c r="G165" t="n">
-        <v>0.18827428612234984</v>
+        <v>0.39177461449134127</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09808254013594431</v>
+        <v>0.29040371690656475</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1824095952986095</v>
+        <v>0.09689932779229805</v>
       </c>
       <c r="J165" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="K165" t="n">
         <v>1.0</v>
       </c>
       <c r="L165" t="n">
-        <v>-16.91835971222884</v>
+        <v>-9.444242647093125</v>
       </c>
       <c r="M165" t="n">
-        <v>39.83671942445768</v>
+        <v>24.88848529418625</v>
       </c>
     </row>
     <row r="166">
@@ -8168,40 +8219,40 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C166" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D166" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="E166" t="n">
-        <v>115.31002885281036</v>
+        <v>0.16473439069004564</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.1276098681034082</v>
+        <v>-0.008538740310680427</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9630985196320179</v>
+        <v>0.5050915365706986</v>
       </c>
       <c r="H166" t="n">
-        <v>0.9557182235584214</v>
+        <v>0.4432279786420359</v>
       </c>
       <c r="I166" t="n">
-        <v>9.001176480378823E-5</v>
+        <v>0.021236836372485954</v>
       </c>
       <c r="J166" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="K166" t="n">
         <v>1.0</v>
       </c>
       <c r="L166" t="n">
-        <v>2.1467755216694395</v>
+        <v>-16.58258274441683</v>
       </c>
       <c r="M166" t="n">
-        <v>1.706448956661121</v>
+        <v>39.16516548883366</v>
       </c>
     </row>
     <row r="167">
@@ -8209,40 +8260,40 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D167" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="E167" t="n">
-        <v>76.70068877311182</v>
+        <v>82.76952803750568</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.11176213919871852</v>
+        <v>-7.41902032409274E-4</v>
       </c>
       <c r="G167" t="n">
-        <v>0.7890970161618022</v>
+        <v>0.2433125767786807</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7363712702022527</v>
+        <v>-0.13503113483197904</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01801491673280945</v>
+        <v>0.5067327531867936</v>
       </c>
       <c r="J167" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K167" t="n">
         <v>1.0</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.9686750002215402</v>
+        <v>-0.34121699408548256</v>
       </c>
       <c r="M167" t="n">
-        <v>7.937350000443081</v>
+        <v>6.682433988170965</v>
       </c>
     </row>
     <row r="168">
@@ -8250,40 +8301,40 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D168" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E168" t="n">
-        <v>105.25822100280935</v>
+        <v>41.97032489052626</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.0641525690182532</v>
+        <v>-0.004019667822368876</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4418716450262851</v>
+        <v>0.2651547402307298</v>
       </c>
       <c r="H168" t="n">
-        <v>0.30233955628285647</v>
+        <v>0.1426805302691847</v>
       </c>
       <c r="I168" t="n">
-        <v>0.14976221220360433</v>
+        <v>0.19159741438553343</v>
       </c>
       <c r="J168" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K168" t="n">
         <v>1.0</v>
       </c>
       <c r="L168" t="n">
-        <v>-4.6210053388425205</v>
+        <v>-12.89326219306282</v>
       </c>
       <c r="M168" t="n">
-        <v>15.242010677685041</v>
+        <v>31.78652438612564</v>
       </c>
     </row>
     <row r="169">
@@ -8291,40 +8342,40 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C169" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D169" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E169" t="n">
-        <v>931.3157429485696</v>
+        <v>231.6022845039325</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.01928160381900495</v>
+        <v>-0.001769409663358197</v>
       </c>
       <c r="G169" t="n">
-        <v>0.8472016081101688</v>
+        <v>0.8223723095505806</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8166419297322025</v>
+        <v>0.8152672019326038</v>
       </c>
       <c r="I169" t="n">
-        <v>0.003284614765673404</v>
+        <v>7.187283881335982E-11</v>
       </c>
       <c r="J169" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="K169" t="n">
         <v>1.0</v>
       </c>
       <c r="L169" t="n">
-        <v>8.76408235994269</v>
+        <v>3.8727864911075796</v>
       </c>
       <c r="M169" t="n">
-        <v>-11.528164719885378</v>
+        <v>-1.745572982215159</v>
       </c>
     </row>
     <row r="170">
@@ -8332,40 +8383,40 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C170" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D170" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E170" t="n">
-        <v>621.0412605588699</v>
+        <v>229.97446649699108</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.10174028627607214</v>
+        <v>-0.001786598379871425</v>
       </c>
       <c r="G170" t="n">
-        <v>0.7026026671422806</v>
+        <v>0.68359719421686</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6431232005707368</v>
+        <v>0.6709410819855344</v>
       </c>
       <c r="I170" t="n">
-        <v>0.018496461453053677</v>
+        <v>1.0642914853341614E-7</v>
       </c>
       <c r="J170" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="K170" t="n">
         <v>1.0</v>
       </c>
       <c r="L170" t="n">
-        <v>-5.864659857541488</v>
+        <v>-6.847386864677014</v>
       </c>
       <c r="M170" t="n">
-        <v>17.729319715082976</v>
+        <v>19.694773729354026</v>
       </c>
     </row>
     <row r="171">
@@ -8373,40 +8424,40 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C171" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D171" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E171" t="n">
-        <v>100.84093538166643</v>
+        <v>26.455297981736905</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.11501053549143053</v>
+        <v>-1.6370793759794335E-4</v>
       </c>
       <c r="G171" t="n">
-        <v>0.5775971300971809</v>
+        <v>0.0060575865372329415</v>
       </c>
       <c r="H171" t="n">
-        <v>0.4719964126214762</v>
+        <v>-0.11818521514561287</v>
       </c>
       <c r="I171" t="n">
-        <v>0.07948919630188298</v>
+        <v>0.8307733705945712</v>
       </c>
       <c r="J171" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="K171" t="n">
         <v>1.0</v>
       </c>
       <c r="L171" t="n">
-        <v>-6.484103104863911</v>
+        <v>-16.34937982545166</v>
       </c>
       <c r="M171" t="n">
-        <v>18.96820620972782</v>
+        <v>38.69875965090332</v>
       </c>
     </row>
     <row r="172">
@@ -8414,40 +8465,40 @@
         <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E172" t="n">
-        <v>2944.487909937604</v>
+        <v>81.75222746794093</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.03234021415633085</v>
+        <v>-9.296601741732147E-4</v>
       </c>
       <c r="G172" t="n">
-        <v>0.8057064795881586</v>
+        <v>0.18827428612234984</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7668477755057903</v>
+        <v>0.09808254013594431</v>
       </c>
       <c r="I172" t="n">
-        <v>0.006093043043114129</v>
+        <v>0.1824095952986095</v>
       </c>
       <c r="J172" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="K172" t="n">
         <v>1.0</v>
       </c>
       <c r="L172" t="n">
-        <v>4.127317884402136</v>
+        <v>-16.91835971222884</v>
       </c>
       <c r="M172" t="n">
-        <v>-2.254635768804272</v>
+        <v>39.83671942445768</v>
       </c>
     </row>
     <row r="173">
@@ -8455,28 +8506,28 @@
         <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C173" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D173" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E173" t="n">
-        <v>596.2462666105762</v>
+        <v>115.31002885281036</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.03100605485227473</v>
+        <v>-0.1276098681034082</v>
       </c>
       <c r="G173" t="n">
-        <v>0.7169932238974134</v>
+        <v>0.9630985196320179</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6603918686768961</v>
+        <v>0.9557182235584214</v>
       </c>
       <c r="I173" t="n">
-        <v>0.016229490014732555</v>
+        <v>9.001176480378823E-5</v>
       </c>
       <c r="J173" t="n">
         <v>7.0</v>
@@ -8485,10 +8536,10 @@
         <v>1.0</v>
       </c>
       <c r="L173" t="n">
-        <v>2.697581867301745</v>
+        <v>2.1467755216694395</v>
       </c>
       <c r="M173" t="n">
-        <v>0.6048362653965098</v>
+        <v>1.706448956661121</v>
       </c>
     </row>
     <row r="174">
@@ -8496,28 +8547,28 @@
         <v>184</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C174" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D174" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E174" t="n">
-        <v>353.06104493298983</v>
+        <v>76.70068877311182</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.15818075600824352</v>
+        <v>-0.11176213919871852</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9377437122668902</v>
+        <v>0.7890970161618022</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9221796403336128</v>
+        <v>0.7363712702022527</v>
       </c>
       <c r="I174" t="n">
-        <v>0.001484706155059451</v>
+        <v>0.01801491673280945</v>
       </c>
       <c r="J174" t="n">
         <v>6.0</v>
@@ -8526,10 +8577,10 @@
         <v>1.0</v>
       </c>
       <c r="L174" t="n">
-        <v>-1.1984909483631485</v>
+        <v>-0.9686750002215402</v>
       </c>
       <c r="M174" t="n">
-        <v>8.396981896726297</v>
+        <v>7.937350000443081</v>
       </c>
     </row>
     <row r="175">
@@ -8537,40 +8588,40 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D175" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E175" t="n">
-        <v>11644.99317367405</v>
+        <v>105.25822100280935</v>
       </c>
       <c r="F175" t="n">
-        <v>-0.08249040635059869</v>
+        <v>-0.0641525690182532</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9111904044463569</v>
+        <v>0.4418716450262851</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8934284853356282</v>
+        <v>0.30233955628285647</v>
       </c>
       <c r="I175" t="n">
-        <v>8.247557669330314E-4</v>
+        <v>0.14976221220360433</v>
       </c>
       <c r="J175" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="K175" t="n">
         <v>1.0</v>
       </c>
       <c r="L175" t="n">
-        <v>0.7434010970787936</v>
+        <v>-4.6210053388425205</v>
       </c>
       <c r="M175" t="n">
-        <v>4.513197805842413</v>
+        <v>15.242010677685041</v>
       </c>
     </row>
     <row r="176">
@@ -8578,28 +8629,28 @@
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D176" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E176" t="n">
-        <v>1929.736307590599</v>
+        <v>931.3157429485696</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.0892996926259844</v>
+        <v>-0.01928160381900495</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8062865058537353</v>
+        <v>0.8472016081101688</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7675438070244823</v>
+        <v>0.8166419297322025</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0060461817247338175</v>
+        <v>0.003284614765673404</v>
       </c>
       <c r="J176" t="n">
         <v>7.0</v>
@@ -8608,10 +8659,10 @@
         <v>1.0</v>
       </c>
       <c r="L176" t="n">
-        <v>-2.9695051578409912</v>
+        <v>8.76408235994269</v>
       </c>
       <c r="M176" t="n">
-        <v>11.939010315681983</v>
+        <v>-11.528164719885378</v>
       </c>
     </row>
     <row r="177">
@@ -8619,40 +8670,40 @@
         <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C177" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D177" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E177" t="n">
-        <v>113.96108624340248</v>
+        <v>621.0412605588699</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.09398270096654127</v>
+        <v>-0.10174028627607214</v>
       </c>
       <c r="G177" t="n">
-        <v>0.6447511898787229</v>
+        <v>0.7026026671422806</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5559389873484036</v>
+        <v>0.6431232005707368</v>
       </c>
       <c r="I177" t="n">
-        <v>0.05440999385438617</v>
+        <v>0.018496461453053677</v>
       </c>
       <c r="J177" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K177" t="n">
         <v>1.0</v>
       </c>
       <c r="L177" t="n">
-        <v>-4.42323813911432</v>
+        <v>-5.864659857541488</v>
       </c>
       <c r="M177" t="n">
-        <v>14.84647627822864</v>
+        <v>17.729319715082976</v>
       </c>
     </row>
     <row r="178">
@@ -8660,40 +8711,40 @@
         <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D178" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E178" t="n">
-        <v>5326.415197422784</v>
+        <v>100.84093538166643</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.09660863870293009</v>
+        <v>-0.11501053549143053</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9365350947665367</v>
+        <v>0.5775971300971809</v>
       </c>
       <c r="H178" t="n">
-        <v>0.923842113719844</v>
+        <v>0.4719964126214762</v>
       </c>
       <c r="I178" t="n">
-        <v>3.5262991001561346E-4</v>
+        <v>0.07948919630188298</v>
       </c>
       <c r="J178" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="K178" t="n">
         <v>1.0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.90954752159765</v>
+        <v>-6.484103104863911</v>
       </c>
       <c r="M178" t="n">
-        <v>4.1809049568047</v>
+        <v>18.96820620972782</v>
       </c>
     </row>
     <row r="179">
@@ -8701,28 +8752,28 @@
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D179" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="E179" t="n">
-        <v>890.8067151726359</v>
+        <v>2944.487909937604</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.0604768568199878</v>
+        <v>-0.03234021415633085</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9307834850076738</v>
+        <v>0.8057064795881586</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9169401820092086</v>
+        <v>0.7668477755057903</v>
       </c>
       <c r="I179" t="n">
-        <v>4.389876462482489E-4</v>
+        <v>0.006093043043114129</v>
       </c>
       <c r="J179" t="n">
         <v>7.0</v>
@@ -8731,10 +8782,10 @@
         <v>1.0</v>
       </c>
       <c r="L179" t="n">
-        <v>3.8632048439328543</v>
+        <v>4.127317884402136</v>
       </c>
       <c r="M179" t="n">
-        <v>-1.7264096878657087</v>
+        <v>-2.254635768804272</v>
       </c>
     </row>
     <row r="180">
@@ -8742,40 +8793,40 @@
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D180" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E180" t="n">
-        <v>70.80546583623813</v>
+        <v>596.2462666105762</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.08570868914638848</v>
+        <v>-0.03100605485227473</v>
       </c>
       <c r="G180" t="n">
-        <v>0.740139164757777</v>
+        <v>0.7169932238974134</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6751739559472212</v>
+        <v>0.6603918686768961</v>
       </c>
       <c r="I180" t="n">
-        <v>0.027905708478970694</v>
+        <v>0.016229490014732555</v>
       </c>
       <c r="J180" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K180" t="n">
         <v>1.0</v>
       </c>
       <c r="L180" t="n">
-        <v>-2.5183612521734284</v>
+        <v>2.697581867301745</v>
       </c>
       <c r="M180" t="n">
-        <v>11.036722504346857</v>
+        <v>0.6048362653965098</v>
       </c>
     </row>
     <row r="181">
@@ -8783,28 +8834,28 @@
         <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D181" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E181" t="n">
-        <v>1592.2773707275358</v>
+        <v>353.06104493298983</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.09924063024247087</v>
+        <v>-0.15818075600824352</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9761010157891364</v>
+        <v>0.9377437122668902</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9701262697364206</v>
+        <v>0.9221796403336128</v>
       </c>
       <c r="I181" t="n">
-        <v>2.1591512433552761E-4</v>
+        <v>0.001484706155059451</v>
       </c>
       <c r="J181" t="n">
         <v>6.0</v>
@@ -8813,10 +8864,10 @@
         <v>1.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4.591193357571052</v>
+        <v>-1.1984909483631485</v>
       </c>
       <c r="M181" t="n">
-        <v>-3.182386715142105</v>
+        <v>8.396981896726297</v>
       </c>
     </row>
     <row r="182">
@@ -8824,40 +8875,40 @@
         <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D182" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="E182" t="n">
-        <v>760.4903532769125</v>
+        <v>11644.99317367405</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.1243578141286987</v>
+        <v>-0.08249040635059869</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9736354084994834</v>
+        <v>0.9111904044463569</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9670442606243542</v>
+        <v>0.8934284853356282</v>
       </c>
       <c r="I182" t="n">
-        <v>2.6298468838534966E-4</v>
+        <v>8.247557669330314E-4</v>
       </c>
       <c r="J182" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K182" t="n">
         <v>1.0</v>
       </c>
       <c r="L182" t="n">
-        <v>2.9353550851305554</v>
+        <v>0.7434010970787936</v>
       </c>
       <c r="M182" t="n">
-        <v>0.12928982973888914</v>
+        <v>4.513197805842413</v>
       </c>
     </row>
     <row r="183">
@@ -8865,40 +8916,40 @@
         <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D183" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E183" t="n">
-        <v>6.588016093382317</v>
+        <v>1929.736307590599</v>
       </c>
       <c r="F183" t="n">
-        <v>-0.08928457891288406</v>
+        <v>-0.0892996926259844</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9534548916030541</v>
+        <v>0.8062865058537353</v>
       </c>
       <c r="H183" t="n">
-        <v>0.9069097832061082</v>
+        <v>0.7675438070244823</v>
       </c>
       <c r="I183" t="n">
-        <v>0.13843477938142582</v>
+        <v>0.0060461817247338175</v>
       </c>
       <c r="J183" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K183" t="n">
         <v>1.0</v>
       </c>
       <c r="L183" t="n">
-        <v>2.739563456273471</v>
+        <v>-2.9695051578409912</v>
       </c>
       <c r="M183" t="n">
-        <v>0.520873087453058</v>
+        <v>11.939010315681983</v>
       </c>
     </row>
     <row r="184">
@@ -8906,40 +8957,40 @@
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D184" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E184" t="n">
-        <v>100.97661282169403</v>
+        <v>113.96108624340248</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.07863363404851875</v>
+        <v>-0.09398270096654127</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9999851685228385</v>
+        <v>0.6447511898787229</v>
       </c>
       <c r="H184" t="n">
-        <v>0.999970337045677</v>
+        <v>0.5559389873484036</v>
       </c>
       <c r="I184" t="n">
-        <v>0.002451734284562231</v>
+        <v>0.05440999385438617</v>
       </c>
       <c r="J184" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="K184" t="n">
         <v>1.0</v>
       </c>
       <c r="L184" t="n">
-        <v>15.269261896449823</v>
+        <v>-4.42323813911432</v>
       </c>
       <c r="M184" t="n">
-        <v>-24.538523792899646</v>
+        <v>14.84647627822864</v>
       </c>
     </row>
     <row r="185">
@@ -8947,40 +8998,40 @@
         <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D185" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E185" t="n">
-        <v>371.75449723252774</v>
+        <v>5326.415197422784</v>
       </c>
       <c r="F185" t="n">
-        <v>-0.07921907543479503</v>
+        <v>-0.09660863870293009</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9970399112590201</v>
+        <v>0.9365350947665367</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9940798225180403</v>
+        <v>0.923842113719844</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0346534900198506</v>
+        <v>3.5262991001561346E-4</v>
       </c>
       <c r="J185" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K185" t="n">
         <v>1.0</v>
       </c>
       <c r="L185" t="n">
-        <v>7.298250474193329</v>
+        <v>0.90954752159765</v>
       </c>
       <c r="M185" t="n">
-        <v>-8.596500948386659</v>
+        <v>4.1809049568047</v>
       </c>
     </row>
     <row r="186">
@@ -8988,40 +9039,40 @@
         <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D186" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E186" t="n">
-        <v>5.428803084771362</v>
+        <v>890.8067151726359</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.07454307416822332</v>
+        <v>-0.0604768568199878</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9660960725663708</v>
+        <v>0.9307834850076738</v>
       </c>
       <c r="H186" t="n">
-        <v>0.9321921451327415</v>
+        <v>0.9169401820092086</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1178936100189497</v>
+        <v>4.389876462482489E-4</v>
       </c>
       <c r="J186" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K186" t="n">
         <v>1.0</v>
       </c>
       <c r="L186" t="n">
-        <v>3.776011737113553</v>
+        <v>3.8632048439328543</v>
       </c>
       <c r="M186" t="n">
-        <v>-1.5520234742271057</v>
+        <v>-1.7264096878657087</v>
       </c>
     </row>
     <row r="187">
@@ -9029,39 +9080,326 @@
         <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D187" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
       <c r="E187" t="n">
+        <v>70.80546583623813</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.08570868914638848</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.740139164757777</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.6751739559472212</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.027905708478970694</v>
+      </c>
+      <c r="J187" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>-2.5183612521734284</v>
+      </c>
+      <c r="M187" t="n">
+        <v>11.036722504346857</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>240</v>
+      </c>
+      <c r="C188" t="s">
+        <v>277</v>
+      </c>
+      <c r="D188" t="s">
+        <v>457</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1592.2773707275358</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.09924063024247087</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.9761010157891364</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9701262697364206</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2.1591512433552761E-4</v>
+      </c>
+      <c r="J188" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>4.591193357571052</v>
+      </c>
+      <c r="M188" t="n">
+        <v>-3.182386715142105</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>240</v>
+      </c>
+      <c r="C189" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" t="s">
+        <v>458</v>
+      </c>
+      <c r="E189" t="n">
+        <v>760.4903532769125</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.1243578141286987</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.9736354084994834</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.9670442606243542</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.6298468838534966E-4</v>
+      </c>
+      <c r="J189" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2.9353550851305554</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.12928982973888914</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>241</v>
+      </c>
+      <c r="C190" t="s">
+        <v>278</v>
+      </c>
+      <c r="D190" t="s">
+        <v>459</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.588016093382317</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.08928457891288406</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9534548916030541</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9069097832061082</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.13843477938142582</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2.739563456273471</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.520873087453058</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>241</v>
+      </c>
+      <c r="C191" t="s">
+        <v>278</v>
+      </c>
+      <c r="D191" t="s">
+        <v>460</v>
+      </c>
+      <c r="E191" t="n">
+        <v>100.97661282169403</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.07863363404851875</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9999851685228385</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.999970337045677</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.002451734284562231</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>15.269261896449823</v>
+      </c>
+      <c r="M191" t="n">
+        <v>-24.538523792899646</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" t="s">
+        <v>278</v>
+      </c>
+      <c r="D192" t="s">
+        <v>461</v>
+      </c>
+      <c r="E192" t="n">
+        <v>371.75449723252774</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.07921907543479503</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.9970399112590201</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.9940798225180403</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.0346534900198506</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>7.298250474193329</v>
+      </c>
+      <c r="M192" t="n">
+        <v>-8.596500948386659</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>241</v>
+      </c>
+      <c r="C193" t="s">
+        <v>278</v>
+      </c>
+      <c r="D193" t="s">
+        <v>462</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.428803084771362</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.07454307416822332</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.9660960725663708</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.9321921451327415</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.1178936100189497</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3.776011737113553</v>
+      </c>
+      <c r="M193" t="n">
+        <v>-1.5520234742271057</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>241</v>
+      </c>
+      <c r="C194" t="s">
+        <v>278</v>
+      </c>
+      <c r="D194" t="s">
+        <v>307</v>
+      </c>
+      <c r="E194" t="n">
         <v>484.77743272008155</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F194" t="n">
         <v>-0.07916868377447422</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G194" t="n">
         <v>0.9977035664884982</v>
       </c>
-      <c r="H187" t="n">
+      <c r="H194" t="n">
         <v>0.9954071329769965</v>
       </c>
-      <c r="I187" t="n">
+      <c r="I194" t="n">
         <v>0.03051921947687147</v>
       </c>
-      <c r="J187" t="n">
+      <c r="J194" t="n">
         <v>3.0</v>
       </c>
-      <c r="K187" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L187" t="n">
+      <c r="K194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L194" t="n">
         <v>7.681950466476121</v>
       </c>
-      <c r="M187" t="n">
+      <c r="M194" t="n">
         <v>-9.363900932952243</v>
       </c>
     </row>
